--- a/Results/_general.xlsx
+++ b/Results/_general.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jairp\Documents\GitHub\AM-Projeto_UFPE2020\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F044D8-2BF6-43BC-9489-CC329843106B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4ABDF55-825B-468B-BF3C-6A0EB0483861}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="825" yWindow="-120" windowWidth="19785" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Folha1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>rl</t>
   </si>
@@ -59,16 +60,18 @@
   <si>
     <t>model</t>
   </si>
+  <si>
+    <t>(</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.0000000"/>
-    <numFmt numFmtId="165" formatCode="0.00000"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,22 +87,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -114,7 +114,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -122,16 +122,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -149,6 +143,1134 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ErroRate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$3:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>cbg</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>knn</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>parzen</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>rl</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>rl_reg</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ens</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.145454545454546</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.09090909090909E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.6363636363636602E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9899-4C9B-B89E-4EE38002A3D5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Precision</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$3:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>cbg</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>knn</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>parzen</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>rl</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>rl_reg</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ens</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$3:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.90184049079754602</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99411764705882399</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9899-4C9B-B89E-4EE38002A3D5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>recall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$3:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>cbg</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>knn</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>parzen</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>rl</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>rl_reg</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ens</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$3:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.859649122807018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.98830409356725102</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.99390243902439002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9899-4C9B-B89E-4EE38002A3D5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$3:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>cbg</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>knn</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>parzen</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>rl</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>rl_reg</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ens</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$3:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.880239520958084</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99120234604105595</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.99694189602446504</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9899-4C9B-B89E-4EE38002A3D5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="424603632"/>
+        <c:axId val="424603960"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="424603632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="424603960"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="424603960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="424603632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>21981</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>14653</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>131885</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>100378</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA295312-18EA-4F49-AB17-7911A5B51A2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -414,10 +1536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:G8"/>
+  <dimension ref="B1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C5" sqref="C5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,88 +1547,99 @@
     <col min="4" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C2" s="6" t="s">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="D2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="2" t="s">
+    <row r="3" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="4">
+      <c r="C3" s="3">
         <v>0.145454545454546</v>
       </c>
-      <c r="E3" s="4">
-        <v>0.90909090909090895</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0.843373493975904</v>
-      </c>
-      <c r="G3" s="4">
-        <v>0.875</v>
+      <c r="D3" s="3">
+        <v>0.90184049079754602</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.859649122807018</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.880239520958084</v>
       </c>
     </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C4" s="2" t="s">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C5" s="2" t="s">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C6" s="2" t="s">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="4">
-        <v>3.6363636363636602E-3</v>
-      </c>
-      <c r="E6" s="4">
+      <c r="C6" s="3">
+        <v>1.09090909090909E-2</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.99411764705882399</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.98830409356725102</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.99120234604105595</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="4">
-        <v>0.99354838709677396</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0.99676375404530704</v>
-      </c>
-    </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4">
         <v>1</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0</v>
       </c>
       <c r="E7" s="4">
         <v>1</v>
@@ -514,68 +1647,77 @@
       <c r="F7" s="4">
         <v>1</v>
       </c>
-      <c r="G7" s="4">
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3">
+        <v>3.6363636363636602E-3</v>
+      </c>
+      <c r="D8" s="4">
         <v>1</v>
       </c>
+      <c r="E8" s="3">
+        <v>0.99390243902439002</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.99694189602446504</v>
+      </c>
     </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+    <row r="18" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M18" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D3:D8">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E7">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F7">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G7">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD517A62-35DA-4179-8663-B4E3D8DD6E82}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>3.6363636363636602E-3</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0.99390243902439002</v>
+      </c>
+      <c r="E2">
+        <v>0.99694189602446504</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Results/_general.xlsx
+++ b/Results/_general.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jairp\Documents\GitHub\AM-Projeto_UFPE2020\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4ABDF55-825B-468B-BF3C-6A0EB0483861}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C904AC0-BAFC-4986-87CE-A627150617D6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="825" yWindow="-120" windowWidth="19785" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19680" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,9 +49,6 @@
     <t>F1</t>
   </si>
   <si>
-    <t>ens</t>
-  </si>
-  <si>
     <t>knn</t>
   </si>
   <si>
@@ -62,6 +59,9 @@
   </si>
   <si>
     <t>(</t>
+  </si>
+  <si>
+    <t>evm</t>
   </si>
 </sst>
 </file>
@@ -88,18 +88,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -114,7 +108,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -123,9 +117,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -211,7 +202,7 @@
                   <c:v>rl_reg</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>ens</c:v>
+                  <c:v>evm</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -226,16 +217,16 @@
                   <c:v>0.145454545454546</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>3.636364E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.09090909090909E-2</c:v>
+                  <c:v>1.8181820000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.6363636363636602E-3</c:v>
+                  <c:v>7.2727269999999997E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -291,7 +282,7 @@
                   <c:v>rl_reg</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>ens</c:v>
+                  <c:v>evm</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -309,10 +300,10 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.99411764705882399</c:v>
+                  <c:v>0.97546010000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>0.95092019999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1</c:v>
@@ -371,7 +362,7 @@
                   <c:v>rl_reg</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>ens</c:v>
+                  <c:v>evm</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -386,16 +377,16 @@
                   <c:v>0.859649122807018</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0.99390239999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.98830409356725102</c:v>
+                  <c:v>0.99375000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>0.98101269999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.99390243902439002</c:v>
+                  <c:v>0.98787879999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -451,7 +442,7 @@
                   <c:v>rl_reg</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>ens</c:v>
+                  <c:v>evm</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -466,16 +457,16 @@
                   <c:v>0.880239520958084</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0.99694190000000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.99120234604105595</c:v>
+                  <c:v>0.98452010000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>0.96573209999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.99694189602446504</c:v>
+                  <c:v>0.99390239999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1539,7 +1530,7 @@
   <dimension ref="B1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:F5"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1556,7 +1547,7 @@
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
@@ -1590,24 +1581,24 @@
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3">
+        <v>3.636364E-3</v>
+      </c>
+      <c r="D4" s="3">
         <v>1</v>
       </c>
-      <c r="E4" s="4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="4">
-        <v>1</v>
+      <c r="E4" s="3">
+        <v>0.99390239999999996</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.99694190000000005</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -1619,58 +1610,106 @@
         <v>0</v>
       </c>
       <c r="C6" s="3">
-        <v>1.09090909090909E-2</v>
+        <v>1.8181820000000001E-2</v>
       </c>
       <c r="D6" s="3">
-        <v>0.99411764705882399</v>
+        <v>0.97546010000000005</v>
       </c>
       <c r="E6" s="3">
-        <v>0.98830409356725102</v>
+        <v>0.99375000000000002</v>
       </c>
       <c r="F6" s="3">
-        <v>0.99120234604105595</v>
+        <v>0.98452010000000001</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="4">
-        <v>0</v>
-      </c>
-      <c r="D7" s="4">
-        <v>1</v>
-      </c>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
-      <c r="F7" s="4">
-        <v>1</v>
+      <c r="C7" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.95092019999999999</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.98101269999999996</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.96573209999999998</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C8" s="3">
-        <v>3.6363636363636602E-3</v>
-      </c>
-      <c r="D8" s="4">
+        <v>7.2727269999999997E-3</v>
+      </c>
+      <c r="D8" s="3">
         <v>1</v>
       </c>
       <c r="E8" s="3">
-        <v>0.99390243902439002</v>
+        <v>0.98787879999999995</v>
       </c>
       <c r="F8" s="3">
-        <v>0.99694189602446504</v>
+        <v>0.99390239999999996</v>
       </c>
     </row>
     <row r="18" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C3:C8">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D8">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E8">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F8">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Results/_general.xlsx
+++ b/Results/_general.xlsx
@@ -8,25 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jairp\Documents\GitHub\AM-Projeto_UFPE2020\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C904AC0-BAFC-4986-87CE-A627150617D6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B32F345C-C48A-4B99-B68D-62AFF945DBF0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19680" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19680" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="General" sheetId="1" r:id="rId1"/>
     <sheet name="Folha1" sheetId="2" r:id="rId2"/>
+    <sheet name="CBG" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="28">
   <si>
     <t>rl</t>
   </si>
@@ -62,6 +72,54 @@
   </si>
   <si>
     <t>evm</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>Tab. 01: Validação do CBG</t>
+  </si>
+  <si>
+    <t>média</t>
+  </si>
+  <si>
+    <t>dp</t>
+  </si>
+  <si>
+    <t>Inf</t>
+  </si>
+  <si>
+    <t>Sup</t>
+  </si>
+  <si>
+    <t>Métrica</t>
+  </si>
+  <si>
+    <t>Média</t>
+  </si>
+  <si>
+    <t>F1-Score</t>
+  </si>
+  <si>
+    <t>Tab. 02: Validação do CBG</t>
+  </si>
+  <si>
+    <t>Tab. 03: Treinameto do CBG</t>
+  </si>
+  <si>
+    <t>Tab. 04: Teste do CBG</t>
+  </si>
+  <si>
+    <t>tc</t>
+  </si>
+  <si>
+    <t>Fold</t>
+  </si>
+  <si>
+    <t>Treinamento</t>
+  </si>
+  <si>
+    <t>Teste</t>
   </si>
 </sst>
 </file>
@@ -96,7 +154,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -104,11 +162,66 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -117,6 +230,78 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -162,7 +347,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$2</c:f>
+              <c:f>General!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -183,7 +368,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$3:$B$8</c:f>
+              <c:f>General!$B$3:$B$8</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -209,7 +394,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$C$8</c:f>
+              <c:f>General!$C$3:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="6"/>
@@ -242,7 +427,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$2</c:f>
+              <c:f>General!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -263,7 +448,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$3:$B$8</c:f>
+              <c:f>General!$B$3:$B$8</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -289,7 +474,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$8</c:f>
+              <c:f>General!$D$3:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="6"/>
@@ -322,7 +507,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$2</c:f>
+              <c:f>General!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -343,7 +528,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$3:$B$8</c:f>
+              <c:f>General!$B$3:$B$8</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -369,7 +554,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$3:$E$8</c:f>
+              <c:f>General!$E$3:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="6"/>
@@ -402,7 +587,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$2</c:f>
+              <c:f>General!$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -423,7 +608,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$3:$B$8</c:f>
+              <c:f>General!$B$3:$B$8</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -449,7 +634,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$3:$F$8</c:f>
+              <c:f>General!$F$3:$F$8</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1529,8 +1714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1717,46 +1902,754 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD517A62-35DA-4179-8663-B4E3D8DD6E82}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E2"/>
+      <selection activeCell="B1" sqref="B1:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>3.6363636363636602E-3</v>
+        <v>0.13872473147162501</v>
       </c>
       <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>0.99390243902439002</v>
-      </c>
-      <c r="E2">
-        <v>0.99694189602446504</v>
+        <v>0.18039119846999299</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0.85513957426825205</v>
+      </c>
+      <c r="C3">
+        <v>0.90636456732231596</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.79357943810047704</v>
+      </c>
+      <c r="C4">
+        <v>0.87605271725213296</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0.83303708119076203</v>
+      </c>
+      <c r="C5">
+        <v>0.87825053556716504</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E5126F3-C5DC-4911-8B13-A3635AD2C868}">
+  <dimension ref="A2:Q31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="2" width="9.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="15"/>
+    <col min="8" max="8" width="10.42578125" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" customWidth="1"/>
+    <col min="10" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="15"/>
+    <col min="17" max="17" width="9.140625" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B2" s="4"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.109090909090909</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.89552238805970197</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.92307692307692302</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="19">
+        <v>0.15955800000000001</v>
+      </c>
+      <c r="J5" s="12">
+        <v>0.13872473147162501</v>
+      </c>
+      <c r="K5" s="12">
+        <v>0.18039119846999299</v>
+      </c>
+      <c r="M5" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="O5" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5" s="24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B6" s="4">
+        <v>2</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.145454545454546</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.87037037037037002</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.83928571428571397</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0.85454545454545505</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0.88075210000000004</v>
+      </c>
+      <c r="J6" s="16">
+        <v>0.85513957426825205</v>
+      </c>
+      <c r="K6" s="16">
+        <v>0.90636456732231596</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="N6" s="22">
+        <v>0.14545449999999999</v>
+      </c>
+      <c r="O6" s="16">
+        <f>N6-(($I$18*$C$16)/SQRT(10))</f>
+        <v>0.12462271388445784</v>
+      </c>
+      <c r="P6" s="16">
+        <f>N6+(($I$18*$C$16)/SQRT(10))</f>
+        <v>0.16628628611554214</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B7" s="4">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.13636363636363599</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.921875</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0.85507246376811596</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0.88721804511278202</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0.83481609999999995</v>
+      </c>
+      <c r="J7" s="16">
+        <v>0.79357943810047704</v>
+      </c>
+      <c r="K7" s="16">
+        <v>0.87605271725213296</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="N7" s="22">
+        <v>0.90184050000000004</v>
+      </c>
+      <c r="O7" s="16">
+        <f>N7-(($I$18*$D$16)/SQRT(10))</f>
+        <v>0.87622978289470288</v>
+      </c>
+      <c r="P7" s="16">
+        <f>N7+(($I$18*$D$16)/SQRT(10))</f>
+        <v>0.92745121710529721</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B8" s="4">
+        <v>4</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.18181818181818199</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.82352941176470595</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0.875</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0.84848484848484895</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="20">
+        <v>0.85564379999999995</v>
+      </c>
+      <c r="J8" s="21">
+        <v>0.83303708119076203</v>
+      </c>
+      <c r="K8" s="21">
+        <v>0.87825053556716504</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="22">
+        <v>0.85964910000000005</v>
+      </c>
+      <c r="O8" s="16">
+        <f>N8-(($I$18*$E$16)/SQRT(10))</f>
+        <v>0.81841532532930361</v>
+      </c>
+      <c r="P8" s="16">
+        <f>N8+(($I$18*$E$16)/SQRT(10))</f>
+        <v>0.9008828746706965</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B9" s="4">
+        <v>5</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.15454545454545501</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.88461538461538503</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0.80701754385964897</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0.84403669724770602</v>
+      </c>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="M9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" s="20">
+        <v>0.88023949999999995</v>
+      </c>
+      <c r="O9" s="21">
+        <f>N9-(($I$18*$F$16)/SQRT(10))</f>
+        <v>0.85763434340846689</v>
+      </c>
+      <c r="P9" s="21">
+        <f>N9+(($I$18*$F$16)/SQRT(10))</f>
+        <v>0.90284465659153301</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B10" s="4">
+        <v>6</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.17272727272727301</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.92156862745098</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0.75806451612903203</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0.83185840707964598</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B11" s="4">
+        <v>7</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.18181818181818199</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0.82608695652173902</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0.87692307692307703</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0.85074626865671599</v>
+      </c>
+      <c r="H11" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B12" s="4">
+        <v>8</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.13761467889908299</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0.91304347826086996</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0.875</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0.89361702127659604</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" s="22">
+        <v>0.1613491</v>
+      </c>
+      <c r="J12" s="16">
+        <f>I12-(($I$18*$C$16)/SQRT(10))</f>
+        <v>0.14051731388445785</v>
+      </c>
+      <c r="K12" s="16">
+        <f>I12+(($I$18*$C$16)/SQRT(10))</f>
+        <v>0.18218088611554215</v>
+      </c>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B13" s="4">
+        <v>9</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.16513761467889901</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0.86</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0.79629629629629595</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0.82692307692307698</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" s="22">
+        <v>0.87646080000000004</v>
+      </c>
+      <c r="J13" s="16">
+        <f>I13-(($I$18*$D$16)/SQRT(10))</f>
+        <v>0.85085008289470287</v>
+      </c>
+      <c r="K13" s="16">
+        <f>I13+(($I$18*$D$16)/SQRT(10))</f>
+        <v>0.9020715171052972</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B14" s="4">
+        <v>10</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.21100917431192701</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0.89090909090909098</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0.74242424242424199</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0.80991735537190102</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="22">
+        <v>0.83598729999999999</v>
+      </c>
+      <c r="J14" s="16">
+        <f>I14-(($I$18*$E$16)/SQRT(10))</f>
+        <v>0.79475352532930355</v>
+      </c>
+      <c r="K14" s="16">
+        <f>I14+(($I$18*$E$16)/SQRT(10))</f>
+        <v>0.87722107467069643</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B15" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="12">
+        <f>AVERAGE(C5:C14)</f>
+        <v>0.15955796497080921</v>
+      </c>
+      <c r="D15" s="12">
+        <f t="shared" ref="D15:F15" si="0">AVERAGE(D5:D14)</f>
+        <v>0.88075207079528428</v>
+      </c>
+      <c r="E15" s="12">
+        <f t="shared" si="0"/>
+        <v>0.83481607767630484</v>
+      </c>
+      <c r="F15" s="12">
+        <f t="shared" si="0"/>
+        <v>0.8556438083789637</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="20">
+        <v>0.85574570000000005</v>
+      </c>
+      <c r="J15" s="21">
+        <f>I15-(($I$18*$F$16)/SQRT(10))</f>
+        <v>0.83314054340846699</v>
+      </c>
+      <c r="K15" s="21">
+        <f>I15+(($I$18*$F$16)/SQRT(10))</f>
+        <v>0.87835085659153311</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="7">
+        <f>_xlfn.STDEV.S(C5:C14)</f>
+        <v>2.9122852278773106E-2</v>
+      </c>
+      <c r="D16" s="7">
+        <f t="shared" ref="D16:F16" si="1">_xlfn.STDEV.S(D5:D14)</f>
+        <v>3.5803801309890915E-2</v>
+      </c>
+      <c r="E16" s="7">
+        <f t="shared" si="1"/>
+        <v>5.7644847252679043E-2</v>
+      </c>
+      <c r="F16" s="7">
+        <f t="shared" si="1"/>
+        <v>3.1602025505752834E-2</v>
+      </c>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H18" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" s="29">
+        <v>2.262</v>
+      </c>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F19" s="15"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="26"/>
+      <c r="B20" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="15"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="26"/>
+      <c r="B21" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="15"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="26"/>
+      <c r="B22" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="22">
+        <v>0.1613491</v>
+      </c>
+      <c r="D22" s="16">
+        <f>C22-(($I$18*$C$16)/SQRT(10))</f>
+        <v>0.14051731388445785</v>
+      </c>
+      <c r="E22" s="16">
+        <f>C22+(($I$18*$C$16)/SQRT(10))</f>
+        <v>0.18218088611554215</v>
+      </c>
+      <c r="F22" s="15"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="26"/>
+      <c r="B23" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="22">
+        <v>0.87646080000000004</v>
+      </c>
+      <c r="D23" s="16">
+        <f>C23-(($I$18*$D$16)/SQRT(10))</f>
+        <v>0.85085008289470287</v>
+      </c>
+      <c r="E23" s="16">
+        <f>C23+(($I$18*$D$16)/SQRT(10))</f>
+        <v>0.9020715171052972</v>
+      </c>
+      <c r="F23" s="15"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="22">
+        <v>0.83598729999999999</v>
+      </c>
+      <c r="D24" s="16">
+        <f>C24-(($I$18*$E$16)/SQRT(10))</f>
+        <v>0.79475352532930355</v>
+      </c>
+      <c r="E24" s="16">
+        <f>C24+(($I$18*$E$16)/SQRT(10))</f>
+        <v>0.87722107467069643</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="20">
+        <v>0.85574570000000005</v>
+      </c>
+      <c r="D25" s="21">
+        <f>C25-(($I$18*$F$16)/SQRT(10))</f>
+        <v>0.83314054340846699</v>
+      </c>
+      <c r="E25" s="21">
+        <f>C25+(($I$18*$F$16)/SQRT(10))</f>
+        <v>0.87835085659153311</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="26"/>
+      <c r="B27" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="19">
+        <v>0.14545449999999999</v>
+      </c>
+      <c r="D27" s="12">
+        <f>C27-(($I$18*$C$16)/SQRT(10))</f>
+        <v>0.12462271388445784</v>
+      </c>
+      <c r="E27" s="12">
+        <f>C27+(($I$18*$C$16)/SQRT(10))</f>
+        <v>0.16628628611554214</v>
+      </c>
+      <c r="F27" s="15"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="26"/>
+      <c r="B28" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="22">
+        <v>0.90184050000000004</v>
+      </c>
+      <c r="D28" s="16">
+        <f>C28-(($I$18*$D$16)/SQRT(10))</f>
+        <v>0.87622978289470288</v>
+      </c>
+      <c r="E28" s="16">
+        <f>C28+(($I$18*$D$16)/SQRT(10))</f>
+        <v>0.92745121710529721</v>
+      </c>
+      <c r="F28" s="15"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="26"/>
+      <c r="B29" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="22">
+        <v>0.85964910000000005</v>
+      </c>
+      <c r="D29" s="16">
+        <f>C29-(($I$18*$E$16)/SQRT(10))</f>
+        <v>0.81841532532930361</v>
+      </c>
+      <c r="E29" s="16">
+        <f>C29+(($I$18*$E$16)/SQRT(10))</f>
+        <v>0.9008828746706965</v>
+      </c>
+      <c r="F29" s="15"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="26"/>
+      <c r="B30" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="20">
+        <v>0.88023949999999995</v>
+      </c>
+      <c r="D30" s="21">
+        <f>C30-(($I$18*$F$16)/SQRT(10))</f>
+        <v>0.85763434340846689</v>
+      </c>
+      <c r="E30" s="21">
+        <f>C30+(($I$18*$F$16)/SQRT(10))</f>
+        <v>0.90284465659153301</v>
+      </c>
+      <c r="F30" s="15"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F31" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Results/_general.xlsx
+++ b/Results/_general.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jairp\Documents\GitHub\AM-Projeto_UFPE2020\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B32F345C-C48A-4B99-B68D-62AFF945DBF0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80AF1578-EB96-4F39-A93D-C46DD17F89DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19680" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19680" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
     <sheet name="Folha1" sheetId="2" r:id="rId2"/>
     <sheet name="CBG" sheetId="3" r:id="rId3"/>
+    <sheet name="KNN" sheetId="4" r:id="rId4"/>
+    <sheet name="Parzen" sheetId="7" r:id="rId5"/>
+    <sheet name="RL" sheetId="5" r:id="rId6"/>
+    <sheet name="RLR" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="40">
   <si>
     <t>rl</t>
   </si>
@@ -66,9 +70,6 @@
   </si>
   <si>
     <t>model</t>
-  </si>
-  <si>
-    <t>(</t>
   </si>
   <si>
     <t>evm</t>
@@ -121,6 +122,45 @@
   <si>
     <t>Teste</t>
   </si>
+  <si>
+    <t>Tab. 01: Validação do KNN</t>
+  </si>
+  <si>
+    <t>Tab. 02: Treinamento/Validação do KNN</t>
+  </si>
+  <si>
+    <t>Tab. 03: Teste do KNN</t>
+  </si>
+  <si>
+    <t>Treinamento/Validação</t>
+  </si>
+  <si>
+    <t>Tab. 01: Validação do RL</t>
+  </si>
+  <si>
+    <t>Tab. 02: Validação do RL</t>
+  </si>
+  <si>
+    <t>Tab. 03: Treinameto do RL</t>
+  </si>
+  <si>
+    <t>Tab. 04: Teste do RL</t>
+  </si>
+  <si>
+    <t>Tab. 01: Validação do</t>
+  </si>
+  <si>
+    <t>Tab. 02: Validação do</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tab. 03: Treinameto </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tab. 04: Teste </t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
 </sst>
 </file>
 
@@ -129,7 +169,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,6 +181,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -221,15 +269,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -304,6 +349,31 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -368,7 +438,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>General!$B$3:$B$8</c:f>
+              <c:f>General!$B$12:$B$17</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -394,24 +464,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>General!$C$3:$C$8</c:f>
+              <c:f>General!$C$12:$C$17</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.145454545454546</c:v>
+                  <c:v>0.14545449999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.636364E-3</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0909089999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.8181820000000001E-2</c:v>
+                  <c:v>1.454545E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.04</c:v>
+                  <c:v>3.6363640000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.2727269999999997E-3</c:v>
+                  <c:v>2.9090910000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -448,7 +521,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>General!$B$3:$B$8</c:f>
+              <c:f>General!$B$12:$B$17</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -474,24 +547,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>General!$D$3:$D$8</c:f>
+              <c:f>General!$D$12:$D$17</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.90184049079754602</c:v>
+                  <c:v>0.90184050000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92638039999999999</c:v>
+                </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.97546010000000005</c:v>
+                  <c:v>0.98773010000000006</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.95092019999999999</c:v>
+                  <c:v>0.95705519999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>0.9631902</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -528,7 +604,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>General!$B$3:$B$8</c:f>
+              <c:f>General!$B$12:$B$17</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -554,24 +630,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>General!$E$3:$E$8</c:f>
+              <c:f>General!$E$12:$E$17</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.859649122807018</c:v>
+                  <c:v>0.85964910000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99390239999999996</c:v>
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98692809999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.99375000000000002</c:v>
+                  <c:v>0.98773010000000006</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.98101269999999996</c:v>
+                  <c:v>0.98113209999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.98787879999999995</c:v>
+                  <c:v>0.9874214</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -608,7 +687,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>General!$B$3:$B$8</c:f>
+              <c:f>General!$B$12:$B$17</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -634,24 +713,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>General!$F$3:$F$8</c:f>
+              <c:f>General!$F$12:$F$17</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.880239520958084</c:v>
+                  <c:v>0.88023949999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.99694190000000005</c:v>
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9556962</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.98452010000000001</c:v>
+                  <c:v>0.98773010000000006</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.96573209999999998</c:v>
+                  <c:v>0.96894409999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.99390239999999996</c:v>
+                  <c:v>0.97515499999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -730,6 +812,7 @@
         <c:axId val="424603960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1412,16 +1495,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>21981</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>14653</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>577607</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>94028</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>131885</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>100378</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>592261</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>171816</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1712,10 +1795,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M18"/>
+  <dimension ref="B1:G17"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:F2"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1724,6 +1807,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="31" t="s">
+        <v>25</v>
+      </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1751,103 +1837,295 @@
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3">
-        <v>0.145454545454546</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0.90184049079754602</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0.859649122807018</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0.880239520958084</v>
-      </c>
+      <c r="C3" s="21">
+        <v>0.1613491</v>
+      </c>
+      <c r="D3" s="21">
+        <v>0.87646080000000004</v>
+      </c>
+      <c r="E3" s="21">
+        <v>0.83598729999999999</v>
+      </c>
+      <c r="F3" s="21">
+        <v>0.85574570000000005</v>
+      </c>
+      <c r="G3" s="14"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3">
-        <v>3.636364E-3</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0.99390239999999996</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0.99694190000000005</v>
-      </c>
+      <c r="C4" s="21">
+        <v>9.1743119999999998E-4</v>
+      </c>
+      <c r="D4" s="21">
+        <v>0.99833329999999998</v>
+      </c>
+      <c r="E4" s="21">
+        <v>1</v>
+      </c>
+      <c r="F4" s="21">
+        <v>0.99915969999999998</v>
+      </c>
+      <c r="G4" s="14"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="C5" s="30">
+        <v>3.7374659999999997E-2</v>
+      </c>
+      <c r="D5" s="30">
+        <v>0.94156930000000005</v>
+      </c>
+      <c r="E5" s="30">
+        <v>0.98947370000000001</v>
+      </c>
+      <c r="F5" s="30">
+        <v>0.96492730000000004</v>
+      </c>
+      <c r="G5" s="14"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="3">
-        <v>1.8181820000000001E-2</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0.97546010000000005</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0.99375000000000002</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0.98452010000000001</v>
-      </c>
+      <c r="C6" s="21">
+        <v>7.292616E-3</v>
+      </c>
+      <c r="D6" s="21">
+        <v>0.99499170000000003</v>
+      </c>
+      <c r="E6" s="21">
+        <v>0.99168049999999996</v>
+      </c>
+      <c r="F6" s="21">
+        <v>0.99333329999999997</v>
+      </c>
+      <c r="G6" s="14"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="3">
-        <v>0.04</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0.95092019999999999</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0.98101269999999996</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0.96573209999999998</v>
-      </c>
+      <c r="C7" s="21">
+        <v>2.9170459999999999E-2</v>
+      </c>
+      <c r="D7" s="21">
+        <v>0.966611</v>
+      </c>
+      <c r="E7" s="21">
+        <v>0.97969539999999999</v>
+      </c>
+      <c r="F7" s="21">
+        <v>0.97310920000000001</v>
+      </c>
+      <c r="G7" s="14"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="3">
-        <v>7.2727269999999997E-3</v>
-      </c>
-      <c r="D8" s="3">
-        <v>1</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0.98787879999999995</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0.99390239999999996</v>
-      </c>
-    </row>
-    <row r="18" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M18" t="s">
         <v>10</v>
       </c>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="14"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="14"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="21">
+        <v>0.14545449999999999</v>
+      </c>
+      <c r="D12" s="21">
+        <v>0.90184050000000004</v>
+      </c>
+      <c r="E12" s="21">
+        <v>0.85964910000000005</v>
+      </c>
+      <c r="F12" s="21">
+        <v>0.88023949999999995</v>
+      </c>
+      <c r="G12" s="14"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="21">
+        <v>0</v>
+      </c>
+      <c r="D13" s="21">
+        <v>1</v>
+      </c>
+      <c r="E13" s="21">
+        <v>1</v>
+      </c>
+      <c r="F13" s="21">
+        <v>1</v>
+      </c>
+      <c r="G13" s="14"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="6">
+        <v>5.0909089999999997E-2</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0.92638039999999999</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0.98692809999999997</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0.9556962</v>
+      </c>
+      <c r="G14" s="14"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="21">
+        <v>1.454545E-2</v>
+      </c>
+      <c r="D15" s="21">
+        <v>0.98773010000000006</v>
+      </c>
+      <c r="E15" s="21">
+        <v>0.98773010000000006</v>
+      </c>
+      <c r="F15" s="21">
+        <v>0.98773010000000006</v>
+      </c>
+      <c r="G15" s="14"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="21">
+        <v>3.6363640000000003E-2</v>
+      </c>
+      <c r="D16" s="21">
+        <v>0.95705519999999999</v>
+      </c>
+      <c r="E16" s="21">
+        <v>0.98113209999999995</v>
+      </c>
+      <c r="F16" s="21">
+        <v>0.96894409999999997</v>
+      </c>
+      <c r="G16" s="14"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="37">
+        <v>2.9090910000000001E-2</v>
+      </c>
+      <c r="D17" s="37">
+        <v>0.9631902</v>
+      </c>
+      <c r="E17" s="37">
+        <v>0.9874214</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0.97515499999999999</v>
+      </c>
+      <c r="G17" s="14"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C3:C8">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D8">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E8">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F8">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12:C17">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -1859,7 +2137,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D8">
+  <conditionalFormatting sqref="D12:D17">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -1871,7 +2149,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E8">
+  <conditionalFormatting sqref="E12:E17">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -1883,7 +2161,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F8">
+  <conditionalFormatting sqref="F12:F17">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -1896,70 +2174,67 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD517A62-35DA-4179-8663-B4E3D8DD6E82}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C5"/>
+      <selection activeCell="B1" sqref="B1:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" t="s">
-        <v>17</v>
+      <c r="A1" s="36">
+        <v>1</v>
+      </c>
+      <c r="B1" s="36">
+        <v>0.2065726</v>
+      </c>
+      <c r="C1" s="36">
+        <v>0.25838149999999999</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" s="36">
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>0.13872473147162501</v>
+        <v>0.86361520000000003</v>
       </c>
       <c r="C2">
-        <v>0.18039119846999299</v>
+        <v>0.91693210000000003</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>0.85513957426825205</v>
+        <v>0.7010419</v>
       </c>
       <c r="C3">
-        <v>0.90636456732231596</v>
+        <v>0.77677499999999999</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>0.79357943810047704</v>
+        <v>0.78286770000000006</v>
       </c>
       <c r="C4">
-        <v>0.87605271725213296</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>0.83303708119076203</v>
-      </c>
-      <c r="C5">
-        <v>0.87825053556716504</v>
+        <v>0.82928389999999996</v>
       </c>
     </row>
   </sheetData>
@@ -1971,685 +2246,3329 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E5126F3-C5DC-4911-8B13-A3635AD2C868}">
   <dimension ref="A2:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="1" max="1" width="9.140625" style="3"/>
     <col min="2" max="2" width="9.85546875" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="15"/>
+    <col min="7" max="7" width="9.140625" style="14"/>
     <col min="8" max="8" width="10.42578125" customWidth="1"/>
     <col min="9" max="9" width="9.85546875" customWidth="1"/>
     <col min="10" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="15"/>
-    <col min="17" max="17" width="9.140625" style="15"/>
+    <col min="12" max="12" width="9.140625" style="14"/>
+    <col min="17" max="17" width="9.140625" style="14"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B2" s="4"/>
+      <c r="B2" s="3"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>21</v>
+      <c r="B3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="10" t="s">
+      <c r="B4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="17" t="s">
+      <c r="E4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="M4" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.109090909090909</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.89552238805970197</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.92307692307692302</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="18">
+        <v>0.15955800000000001</v>
+      </c>
+      <c r="J5" s="11">
+        <v>0.13872473147162501</v>
+      </c>
+      <c r="K5" s="11">
+        <v>0.18039119846999299</v>
+      </c>
+      <c r="M5" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0.109090909090909</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0.89552238805970197</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0.92307692307692302</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0.90909090909090895</v>
-      </c>
-      <c r="H5" s="18" t="s">
+      <c r="N5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="O5" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="P5" s="23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.145454545454546</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.87037037037037002</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.83928571428571397</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.85454545454545505</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0.88075210000000004</v>
+      </c>
+      <c r="J6" s="15">
+        <v>0.85513957426825205</v>
+      </c>
+      <c r="K6" s="15">
+        <v>0.90636456732231596</v>
+      </c>
+      <c r="M6" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="19">
-        <v>0.15955800000000001</v>
-      </c>
-      <c r="J5" s="12">
-        <v>0.13872473147162501</v>
-      </c>
-      <c r="K5" s="12">
-        <v>0.18039119846999299</v>
-      </c>
-      <c r="M5" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="N5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="O5" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="P5" s="24" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="4">
-        <v>2</v>
-      </c>
-      <c r="C6" s="5">
-        <v>0.145454545454546</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0.87037037037037002</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0.83928571428571397</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0.85454545454545505</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6" s="5">
-        <v>0.88075210000000004</v>
-      </c>
-      <c r="J6" s="16">
-        <v>0.85513957426825205</v>
-      </c>
-      <c r="K6" s="16">
-        <v>0.90636456732231596</v>
-      </c>
-      <c r="M6" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="N6" s="22">
+      <c r="N6" s="21">
         <v>0.14545449999999999</v>
       </c>
-      <c r="O6" s="16">
+      <c r="O6" s="15">
         <f>N6-(($I$18*$C$16)/SQRT(10))</f>
         <v>0.12462271388445784</v>
       </c>
-      <c r="P6" s="16">
+      <c r="P6" s="15">
         <f>N6+(($I$18*$C$16)/SQRT(10))</f>
         <v>0.16628628611554214</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>3</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>0.13636363636363599</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>0.921875</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>0.85507246376811596</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <v>0.88721804511278202</v>
       </c>
-      <c r="H7" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="5">
+      <c r="H7" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="4">
         <v>0.83481609999999995</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J7" s="15">
         <v>0.79357943810047704</v>
       </c>
-      <c r="K7" s="16">
+      <c r="K7" s="15">
         <v>0.87605271725213296</v>
       </c>
-      <c r="M7" s="14" t="s">
+      <c r="M7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="N7" s="22">
+      <c r="N7" s="21">
         <v>0.90184050000000004</v>
       </c>
-      <c r="O7" s="16">
+      <c r="O7" s="15">
         <f>N7-(($I$18*$D$16)/SQRT(10))</f>
         <v>0.87622978289470288</v>
       </c>
-      <c r="P7" s="16">
+      <c r="P7" s="15">
         <f>N7+(($I$18*$D$16)/SQRT(10))</f>
         <v>0.92745121710529721</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>4</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>0.18181818181818199</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>0.82352941176470595</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>0.875</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <v>0.84848484848484895</v>
       </c>
-      <c r="H8" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="20">
+      <c r="H8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="19">
         <v>0.85564379999999995</v>
       </c>
-      <c r="J8" s="21">
+      <c r="J8" s="20">
         <v>0.83303708119076203</v>
       </c>
-      <c r="K8" s="21">
+      <c r="K8" s="20">
         <v>0.87825053556716504</v>
       </c>
-      <c r="M8" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="N8" s="22">
+      <c r="M8" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="N8" s="21">
         <v>0.85964910000000005</v>
       </c>
-      <c r="O8" s="16">
+      <c r="O8" s="15">
         <f>N8-(($I$18*$E$16)/SQRT(10))</f>
         <v>0.81841532532930361</v>
       </c>
-      <c r="P8" s="16">
+      <c r="P8" s="15">
         <f>N8+(($I$18*$E$16)/SQRT(10))</f>
         <v>0.9008828746706965</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>5</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>0.15454545454545501</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>0.88461538461538503</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>0.80701754385964897</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <v>0.84403669724770602</v>
       </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="M9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="N9" s="20">
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="M9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N9" s="19">
         <v>0.88023949999999995</v>
       </c>
-      <c r="O9" s="21">
+      <c r="O9" s="20">
         <f>N9-(($I$18*$F$16)/SQRT(10))</f>
         <v>0.85763434340846689</v>
       </c>
-      <c r="P9" s="21">
+      <c r="P9" s="20">
         <f>N9+(($I$18*$F$16)/SQRT(10))</f>
         <v>0.90284465659153301</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>6</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>0.17272727272727301</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>0.92156862745098</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>0.75806451612903203</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="4">
         <v>0.83185840707964598</v>
       </c>
-      <c r="H10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
+      <c r="H10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>7</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>0.18181818181818199</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>0.82608695652173902</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>0.87692307692307703</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="4">
         <v>0.85074626865671599</v>
       </c>
-      <c r="H11" s="25" t="s">
+      <c r="H11" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" s="24" t="s">
+      <c r="J11" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="K11" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>8</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>0.13761467889908299</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>0.91304347826086996</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <v>0.875</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="4">
         <v>0.89361702127659604</v>
       </c>
-      <c r="H12" s="14" t="s">
+      <c r="H12" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="I12" s="22">
+      <c r="I12" s="21">
         <v>0.1613491</v>
       </c>
-      <c r="J12" s="16">
+      <c r="J12" s="15">
         <f>I12-(($I$18*$C$16)/SQRT(10))</f>
         <v>0.14051731388445785</v>
       </c>
-      <c r="K12" s="16">
+      <c r="K12" s="15">
         <f>I12+(($I$18*$C$16)/SQRT(10))</f>
         <v>0.18218088611554215</v>
       </c>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>9</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <v>0.16513761467889901</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>0.86</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <v>0.79629629629629595</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="4">
         <v>0.82692307692307698</v>
       </c>
-      <c r="H13" s="14" t="s">
+      <c r="H13" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="I13" s="22">
+      <c r="I13" s="21">
         <v>0.87646080000000004</v>
       </c>
-      <c r="J13" s="16">
+      <c r="J13" s="15">
         <f>I13-(($I$18*$D$16)/SQRT(10))</f>
         <v>0.85085008289470287</v>
       </c>
-      <c r="K13" s="16">
+      <c r="K13" s="15">
         <f>I13+(($I$18*$D$16)/SQRT(10))</f>
         <v>0.9020715171052972</v>
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>10</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <v>0.21100917431192701</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>0.89090909090909098</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="4">
         <v>0.74242424242424199</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="4">
         <v>0.80991735537190102</v>
       </c>
-      <c r="H14" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="I14" s="22">
+      <c r="H14" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="21">
         <v>0.83598729999999999</v>
       </c>
-      <c r="J14" s="16">
+      <c r="J14" s="15">
         <f>I14-(($I$18*$E$16)/SQRT(10))</f>
         <v>0.79475352532930355</v>
       </c>
-      <c r="K14" s="16">
+      <c r="K14" s="15">
         <f>I14+(($I$18*$E$16)/SQRT(10))</f>
         <v>0.87722107467069643</v>
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="12">
+      <c r="B15" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="11">
         <f>AVERAGE(C5:C14)</f>
         <v>0.15955796497080921</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="11">
         <f t="shared" ref="D15:F15" si="0">AVERAGE(D5:D14)</f>
         <v>0.88075207079528428</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="11">
         <f t="shared" si="0"/>
         <v>0.83481607767630484</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="11">
         <f t="shared" si="0"/>
         <v>0.8556438083789637</v>
       </c>
-      <c r="H15" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" s="20">
+      <c r="H15" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="19">
         <v>0.85574570000000005</v>
       </c>
-      <c r="J15" s="21">
+      <c r="J15" s="20">
         <f>I15-(($I$18*$F$16)/SQRT(10))</f>
         <v>0.83314054340846699</v>
       </c>
-      <c r="K15" s="21">
+      <c r="K15" s="20">
         <f>I15+(($I$18*$F$16)/SQRT(10))</f>
         <v>0.87835085659153311</v>
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="7">
+      <c r="B16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="6">
         <f>_xlfn.STDEV.S(C5:C14)</f>
         <v>2.9122852278773106E-2</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="6">
         <f t="shared" ref="D16:F16" si="1">_xlfn.STDEV.S(D5:D14)</f>
         <v>3.5803801309890915E-2</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="6">
         <f t="shared" si="1"/>
         <v>5.7644847252679043E-2</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="6">
         <f t="shared" si="1"/>
         <v>3.1602025505752834E-2</v>
       </c>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H18" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="I18" s="29">
+      <c r="H18" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="28">
         <v>2.262</v>
       </c>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F19" s="15"/>
+      <c r="F19" s="14"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="26"/>
-      <c r="B20" s="25" t="s">
+      <c r="A20" s="25"/>
+      <c r="B20" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="24" t="s">
+      <c r="D20" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="15"/>
+      <c r="F20" s="14"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="26"/>
-      <c r="B21" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="15"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="14"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="26"/>
-      <c r="B22" s="14" t="s">
+      <c r="A22" s="25"/>
+      <c r="B22" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="22">
+      <c r="C22" s="21">
         <v>0.1613491</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D22" s="15">
         <f>C22-(($I$18*$C$16)/SQRT(10))</f>
         <v>0.14051731388445785</v>
       </c>
-      <c r="E22" s="16">
+      <c r="E22" s="15">
         <f>C22+(($I$18*$C$16)/SQRT(10))</f>
         <v>0.18218088611554215</v>
       </c>
-      <c r="F22" s="15"/>
+      <c r="F22" s="14"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="26"/>
-      <c r="B23" s="14" t="s">
+      <c r="A23" s="25"/>
+      <c r="B23" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="22">
+      <c r="C23" s="21">
         <v>0.87646080000000004</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D23" s="15">
         <f>C23-(($I$18*$D$16)/SQRT(10))</f>
         <v>0.85085008289470287</v>
       </c>
-      <c r="E23" s="16">
+      <c r="E23" s="15">
         <f>C23+(($I$18*$D$16)/SQRT(10))</f>
         <v>0.9020715171052972</v>
       </c>
-      <c r="F23" s="15"/>
+      <c r="F23" s="14"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="22">
+      <c r="B24" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="21">
         <v>0.83598729999999999</v>
       </c>
-      <c r="D24" s="16">
+      <c r="D24" s="15">
         <f>C24-(($I$18*$E$16)/SQRT(10))</f>
         <v>0.79475352532930355</v>
       </c>
-      <c r="E24" s="16">
+      <c r="E24" s="15">
         <f>C24+(($I$18*$E$16)/SQRT(10))</f>
         <v>0.87722107467069643</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="20">
+      <c r="B25" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="19">
         <v>0.85574570000000005</v>
       </c>
-      <c r="D25" s="21">
+      <c r="D25" s="20">
         <f>C25-(($I$18*$F$16)/SQRT(10))</f>
         <v>0.83314054340846699</v>
       </c>
-      <c r="E25" s="21">
+      <c r="E25" s="20">
         <f>C25+(($I$18*$F$16)/SQRT(10))</f>
         <v>0.87835085659153311</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="27" t="s">
-        <v>27</v>
+      <c r="B26" s="26" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="26"/>
-      <c r="B27" s="18" t="s">
+      <c r="A27" s="25"/>
+      <c r="B27" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="19">
+      <c r="C27" s="18">
         <v>0.14545449999999999</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="11">
         <f>C27-(($I$18*$C$16)/SQRT(10))</f>
         <v>0.12462271388445784</v>
       </c>
-      <c r="E27" s="12">
+      <c r="E27" s="11">
         <f>C27+(($I$18*$C$16)/SQRT(10))</f>
         <v>0.16628628611554214</v>
       </c>
-      <c r="F27" s="15"/>
+      <c r="F27" s="14"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="26"/>
-      <c r="B28" s="14" t="s">
+      <c r="A28" s="25"/>
+      <c r="B28" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="22">
+      <c r="C28" s="21">
         <v>0.90184050000000004</v>
       </c>
-      <c r="D28" s="16">
+      <c r="D28" s="15">
         <f>C28-(($I$18*$D$16)/SQRT(10))</f>
         <v>0.87622978289470288</v>
       </c>
-      <c r="E28" s="16">
+      <c r="E28" s="15">
         <f>C28+(($I$18*$D$16)/SQRT(10))</f>
         <v>0.92745121710529721</v>
       </c>
-      <c r="F28" s="15"/>
+      <c r="F28" s="14"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="26"/>
-      <c r="B29" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="22">
+      <c r="A29" s="25"/>
+      <c r="B29" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="21">
         <v>0.85964910000000005</v>
       </c>
-      <c r="D29" s="16">
+      <c r="D29" s="15">
         <f>C29-(($I$18*$E$16)/SQRT(10))</f>
         <v>0.81841532532930361</v>
       </c>
-      <c r="E29" s="16">
+      <c r="E29" s="15">
         <f>C29+(($I$18*$E$16)/SQRT(10))</f>
         <v>0.9008828746706965</v>
       </c>
-      <c r="F29" s="15"/>
+      <c r="F29" s="14"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="26"/>
-      <c r="B30" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="20">
+      <c r="A30" s="25"/>
+      <c r="B30" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="19">
         <v>0.88023949999999995</v>
       </c>
-      <c r="D30" s="21">
+      <c r="D30" s="20">
         <f>C30-(($I$18*$F$16)/SQRT(10))</f>
         <v>0.85763434340846689</v>
       </c>
-      <c r="E30" s="21">
+      <c r="E30" s="20">
         <f>C30+(($I$18*$F$16)/SQRT(10))</f>
         <v>0.90284465659153301</v>
       </c>
-      <c r="F30" s="15"/>
+      <c r="F30" s="14"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F31" s="15"/>
+      <c r="F31" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30173D1D-E4E5-4594-9CE2-2395742BC0EB}">
+  <dimension ref="B3:P18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="O5" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="P5" s="23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="18">
+        <v>9.1743119999999998E-4</v>
+      </c>
+      <c r="J6" s="11">
+        <v>-1.1579419999999999E-3</v>
+      </c>
+      <c r="K6" s="11">
+        <v>2.9928049999999999E-3</v>
+      </c>
+      <c r="M6" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="N6" s="9"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>3</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0.99833329999999998</v>
+      </c>
+      <c r="J7" s="15">
+        <v>0.99456310000000003</v>
+      </c>
+      <c r="K7" s="15">
+        <v>1.0021036000000001</v>
+      </c>
+      <c r="M7" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="21">
+        <v>9.1743119999999998E-4</v>
+      </c>
+      <c r="O7" s="15">
+        <v>-1.1579419999999999E-3</v>
+      </c>
+      <c r="P7" s="15">
+        <v>2.9928049999999999E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="4">
+        <v>1</v>
+      </c>
+      <c r="J8" s="15">
+        <v>1</v>
+      </c>
+      <c r="K8" s="15">
+        <v>1</v>
+      </c>
+      <c r="M8" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="N8" s="21">
+        <v>0.99833329999999998</v>
+      </c>
+      <c r="O8" s="15">
+        <v>0.99456310000000003</v>
+      </c>
+      <c r="P8" s="15">
+        <v>1.0021036000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>5</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="19">
+        <v>0.99915969999999998</v>
+      </c>
+      <c r="J9" s="20">
+        <v>0.99725870000000005</v>
+      </c>
+      <c r="K9" s="20">
+        <v>1.0010606</v>
+      </c>
+      <c r="M9" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="N9" s="21">
+        <v>1</v>
+      </c>
+      <c r="O9" s="15">
+        <v>1</v>
+      </c>
+      <c r="P9" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>6</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N10" s="19">
+        <v>0.99915969999999998</v>
+      </c>
+      <c r="O10" s="20">
+        <v>0.99725870000000005</v>
+      </c>
+      <c r="P10" s="20">
+        <v>1.0010606</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>7</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M11" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>8</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="M12" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="18">
+        <v>0</v>
+      </c>
+      <c r="O12" s="11">
+        <v>-2.0752293744000002E-3</v>
+      </c>
+      <c r="P12" s="11">
+        <v>3.7700075400000075E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <v>9</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+      <c r="F13" s="4">
+        <v>1</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" s="21">
+        <v>0</v>
+      </c>
+      <c r="J13" s="15">
+        <f>I13-((I18*$C$16)/SQRT(10))</f>
+        <v>-2.0752293744000002E-3</v>
+      </c>
+      <c r="K13" s="15">
+        <f>I13+((D16*$I$18)/SQRT(10))</f>
+        <v>3.7700075400000075E-3</v>
+      </c>
+      <c r="M13" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="N13" s="21">
+        <v>1</v>
+      </c>
+      <c r="O13" s="15">
+        <v>0.99622999245999999</v>
+      </c>
+      <c r="P13" s="15">
+        <v>1.00377000754</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>10</v>
+      </c>
+      <c r="C14" s="4">
+        <v>9.1743120000000004E-3</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.98333329999999997</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.99159660000000005</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="21">
+        <v>1</v>
+      </c>
+      <c r="J14" s="15">
+        <f>I14-((I18*$D$16)/SQRT(10))</f>
+        <v>0.99622999245999999</v>
+      </c>
+      <c r="K14" s="15">
+        <f>I14+((I18*$D$16)/SQRT(10))</f>
+        <v>1.00377000754</v>
+      </c>
+      <c r="M14" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="N14" s="21">
+        <v>1</v>
+      </c>
+      <c r="O14" s="15">
+        <v>1</v>
+      </c>
+      <c r="P14" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B15" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="11">
+        <f>AVERAGE(C5:C14)</f>
+        <v>9.1743120000000009E-4</v>
+      </c>
+      <c r="D15" s="11">
+        <f t="shared" ref="D15:F15" si="0">AVERAGE(D5:D14)</f>
+        <v>0.99833333000000002</v>
+      </c>
+      <c r="E15" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F15" s="11">
+        <f t="shared" si="0"/>
+        <v>0.99915965999999989</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="21">
+        <v>1</v>
+      </c>
+      <c r="J15" s="15">
+        <f>I15-((I18*$E$16)/SQRT(10))</f>
+        <v>1</v>
+      </c>
+      <c r="K15" s="15">
+        <f>I15+((I18*$E$16)/SQRT(10))</f>
+        <v>1</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N15" s="19">
+        <v>1</v>
+      </c>
+      <c r="O15" s="20">
+        <v>0.99809915092000001</v>
+      </c>
+      <c r="P15" s="20">
+        <v>1.0019008490799999</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B16" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="20">
+        <f>_xlfn.STDEV.S(C5:C14)</f>
+        <v>2.9011721885014688E-3</v>
+      </c>
+      <c r="D16" s="20">
+        <f t="shared" ref="D16:F16" si="1">_xlfn.STDEV.S(D5:D14)</f>
+        <v>5.2704733078728439E-3</v>
+      </c>
+      <c r="E16" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="20">
+        <f t="shared" si="1"/>
+        <v>2.6573884089458799E-3</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="19">
+        <v>1</v>
+      </c>
+      <c r="J16" s="20">
+        <f>I16-((I18*$F$16)/SQRT(10))</f>
+        <v>0.99809915092000001</v>
+      </c>
+      <c r="K16" s="20">
+        <f>I16+((I18*$F$16)/SQRT(10))</f>
+        <v>1.0019008490799999</v>
+      </c>
+    </row>
+    <row r="18" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H18" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="28">
+        <v>2.262</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD074B2-F831-4F43-9A63-89420B873B16}">
+  <dimension ref="A2:Q31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="9.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="4" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="14"/>
+    <col min="8" max="8" width="10.42578125" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" customWidth="1"/>
+    <col min="10" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="14"/>
+    <col min="17" max="17" width="9.140625" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B2" s="3"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="14"/>
+      <c r="N4" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.21818180000000001</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.85507250000000001</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0.80821920000000003</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0.83098590000000006</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="21">
+        <f>C15</f>
+        <v>0.23247707000000001</v>
+      </c>
+      <c r="K5" s="36">
+        <v>0.2065726</v>
+      </c>
+      <c r="L5" s="36">
+        <v>0.25838149999999999</v>
+      </c>
+      <c r="M5" s="14"/>
+      <c r="N5" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="O5" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="P5" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q5" s="35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>2</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.21818180000000001</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.88524590000000003</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0.7605634</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.81818179999999996</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="15">
+        <f>D15</f>
+        <v>0.89027361999999999</v>
+      </c>
+      <c r="K6">
+        <v>0.86361520000000003</v>
+      </c>
+      <c r="L6">
+        <v>0.91693210000000003</v>
+      </c>
+      <c r="M6" s="14"/>
+      <c r="N6" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="O6" s="21">
+        <v>5.0909089999999997E-2</v>
+      </c>
+      <c r="P6" s="15">
+        <f>O6-(($J$18*$C$16)/SQRT(10))</f>
+        <v>2.5006400474438525E-2</v>
+      </c>
+      <c r="Q6" s="15">
+        <f>O6+(($J$18*$C$16)/SQRT(10))</f>
+        <v>7.6811779525561466E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>3</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.89230770000000004</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0.79452049999999996</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0.84057970000000004</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="15">
+        <f>E15</f>
+        <v>0.73890846999999993</v>
+      </c>
+      <c r="K7">
+        <v>0.7010419</v>
+      </c>
+      <c r="L7">
+        <v>0.77677499999999999</v>
+      </c>
+      <c r="M7" s="14"/>
+      <c r="N7" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="O7" s="21">
+        <v>0.92638039999999999</v>
+      </c>
+      <c r="P7" s="15">
+        <f>O7-(($J$18*$D$16)/SQRT(10))</f>
+        <v>0.89972379980298312</v>
+      </c>
+      <c r="Q7" s="15">
+        <f>O7+(($J$18*$D$16)/SQRT(10))</f>
+        <v>0.95303700019701687</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>4</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.27272730000000001</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.92156859999999996</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.64383559999999995</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0.75806450000000003</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="15">
+        <f>F15</f>
+        <v>0.80607582999999994</v>
+      </c>
+      <c r="K8">
+        <v>0.78286770000000006</v>
+      </c>
+      <c r="L8">
+        <v>0.82928389999999996</v>
+      </c>
+      <c r="M8" s="14"/>
+      <c r="N8" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="O8" s="21">
+        <v>0.98692809999999997</v>
+      </c>
+      <c r="P8" s="15">
+        <f>O8-(($J$18*$E$16)/SQRT(10))</f>
+        <v>0.94906417017026434</v>
+      </c>
+      <c r="Q8" s="15">
+        <f>O8+(($J$18*$E$16)/SQRT(10))</f>
+        <v>1.0247920298297355</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>5</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.2090909</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.94827589999999995</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0.73333329999999997</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0.82706769999999996</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" s="21">
+        <v>0.9556962</v>
+      </c>
+      <c r="P9" s="15">
+        <f>O9-(($J$18*$F$16)/SQRT(10))</f>
+        <v>0.93248971515084245</v>
+      </c>
+      <c r="Q9" s="15">
+        <f>O9+(($J$18*$F$16)/SQRT(10))</f>
+        <v>0.97890268484915754</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>6</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.28181820000000002</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0.83582089999999998</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0.73684210000000006</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0.78321680000000005</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="I10" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>7</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0.88709680000000002</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0.78571429999999998</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0.83333330000000005</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="I11" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>8</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0.29357800000000001</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0.84210529999999995</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0.67605630000000005</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="J12" s="21">
+        <v>3.7374659999999997E-2</v>
+      </c>
+      <c r="K12" s="15">
+        <f>J12-(($J$18*$C$16)/SQRT(10))</f>
+        <v>1.1471970474438525E-2</v>
+      </c>
+      <c r="L12" s="15">
+        <f>J12+(($J$18*$C$16)/SQRT(10))</f>
+        <v>6.3277349525561466E-2</v>
+      </c>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <v>9</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0.20183490000000001</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0.91071429999999998</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0.8225806</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" s="21">
+        <v>0.94156930000000005</v>
+      </c>
+      <c r="K13" s="15">
+        <f>J13-(($J$18*$D$16)/SQRT(10))</f>
+        <v>0.91491269980298318</v>
+      </c>
+      <c r="L13" s="15">
+        <f>J13+(($J$18*$D$16)/SQRT(10))</f>
+        <v>0.96822590019701693</v>
+      </c>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>10</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0.2293578</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0.92452829999999997</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0.79674800000000001</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="J14" s="21">
+        <v>0.98947370000000001</v>
+      </c>
+      <c r="K14" s="15">
+        <f>J14-(($J$18*$E$16)/SQRT(10))</f>
+        <v>0.95160977017026438</v>
+      </c>
+      <c r="L14" s="15">
+        <f>J14+(($J$18*$E$16)/SQRT(10))</f>
+        <v>1.0273376298297356</v>
+      </c>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="11">
+        <f>AVERAGE(C5:C14)</f>
+        <v>0.23247707000000001</v>
+      </c>
+      <c r="D15" s="11">
+        <f t="shared" ref="D15:F15" si="0">AVERAGE(D5:D14)</f>
+        <v>0.89027361999999999</v>
+      </c>
+      <c r="E15" s="11">
+        <f t="shared" si="0"/>
+        <v>0.73890846999999993</v>
+      </c>
+      <c r="F15" s="11">
+        <f t="shared" si="0"/>
+        <v>0.80607582999999994</v>
+      </c>
+      <c r="G15" s="11"/>
+      <c r="I15" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="21">
+        <v>0.96492730000000004</v>
+      </c>
+      <c r="K15" s="15">
+        <f>J15-(($J$18*$F$16)/SQRT(10))</f>
+        <v>0.94172081515084249</v>
+      </c>
+      <c r="L15" s="15">
+        <f>J15+(($J$18*$F$16)/SQRT(10))</f>
+        <v>0.98813378484915759</v>
+      </c>
+      <c r="M15" s="14"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="6">
+        <f>_xlfn.STDEV.S(C5:C14)</f>
+        <v>3.6211978967710223E-2</v>
+      </c>
+      <c r="D16" s="6">
+        <f t="shared" ref="D16:F16" si="1">_xlfn.STDEV.S(D5:D14)</f>
+        <v>3.726594663972875E-2</v>
+      </c>
+      <c r="E16" s="6">
+        <f t="shared" si="1"/>
+        <v>5.293380169175773E-2</v>
+      </c>
+      <c r="F16" s="6">
+        <f t="shared" si="1"/>
+        <v>3.24426828512498E-2</v>
+      </c>
+      <c r="G16" s="20"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I18" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" s="28">
+        <v>2.262</v>
+      </c>
+      <c r="K18" s="14"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F19" s="14"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="25"/>
+      <c r="B20" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="14"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="25"/>
+      <c r="B21" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="14"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="25"/>
+      <c r="B22" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="21">
+        <v>3.7374659999999997E-2</v>
+      </c>
+      <c r="D22" s="15">
+        <v>1.1471970474438525E-2</v>
+      </c>
+      <c r="E22" s="15">
+        <v>6.3277349525561466E-2</v>
+      </c>
+      <c r="F22" s="14"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="25"/>
+      <c r="B23" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="21">
+        <v>0.94156930000000005</v>
+      </c>
+      <c r="D23" s="15">
+        <v>0.91491269980298318</v>
+      </c>
+      <c r="E23" s="15">
+        <v>0.96822590019701693</v>
+      </c>
+      <c r="F23" s="14"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="21">
+        <v>0.98947370000000001</v>
+      </c>
+      <c r="D24" s="15">
+        <v>0.95160977017026438</v>
+      </c>
+      <c r="E24" s="15">
+        <v>1.0273376298297356</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="19">
+        <v>0.96492730000000004</v>
+      </c>
+      <c r="D25" s="20">
+        <v>0.94172081515084249</v>
+      </c>
+      <c r="E25" s="20">
+        <v>0.98813378484915759</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="25"/>
+      <c r="B27" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="18">
+        <v>5.0909089999999997E-2</v>
+      </c>
+      <c r="D27" s="11">
+        <v>2.5006400474438525E-2</v>
+      </c>
+      <c r="E27" s="11">
+        <v>7.6811779525561466E-2</v>
+      </c>
+      <c r="F27" s="14"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="25"/>
+      <c r="B28" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="21">
+        <v>0.92638039999999999</v>
+      </c>
+      <c r="D28" s="15">
+        <v>0.89972379980298312</v>
+      </c>
+      <c r="E28" s="15">
+        <v>0.95303700019701687</v>
+      </c>
+      <c r="F28" s="14"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="25"/>
+      <c r="B29" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="21">
+        <v>0.98692809999999997</v>
+      </c>
+      <c r="D29" s="15">
+        <v>0.94906417017026434</v>
+      </c>
+      <c r="E29" s="15">
+        <v>1.0247920298297355</v>
+      </c>
+      <c r="F29" s="14"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="25"/>
+      <c r="B30" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="19">
+        <v>0.9556962</v>
+      </c>
+      <c r="D30" s="20">
+        <v>0.93248971515084245</v>
+      </c>
+      <c r="E30" s="20">
+        <v>0.97890268484915754</v>
+      </c>
+      <c r="F30" s="14"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F31" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2401DB22-3303-4B86-BFB0-0080C64FED13}">
+  <dimension ref="A2:Q31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="9.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="14"/>
+    <col min="8" max="8" width="10.42578125" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" customWidth="1"/>
+    <col min="10" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="14"/>
+    <col min="17" max="17" width="9.140625" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4">
+        <v>3.6363635999999998E-2</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.97058820000000001</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.97058820000000001</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.97058820000000001</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="18">
+        <v>1.0925771400000001E-2</v>
+      </c>
+      <c r="J5" s="11">
+        <v>2.9336290000000001E-3</v>
+      </c>
+      <c r="K5" s="11">
+        <v>1.891791E-2</v>
+      </c>
+      <c r="M5" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="O5" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="P5" s="23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4">
+        <v>9.0909089999999994E-3</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.98484850000000002</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.99236639999999998</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0.99045242999999983</v>
+      </c>
+      <c r="J6" s="15">
+        <v>0.98273201899999996</v>
+      </c>
+      <c r="K6" s="15">
+        <v>0.99817283999999995</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="N6" s="21">
+        <v>1.454545E-2</v>
+      </c>
+      <c r="O6" s="15">
+        <f>N6-(($I$18*$C$16)/SQRT(10))</f>
+        <v>6.5538627889559359E-3</v>
+      </c>
+      <c r="P6" s="15">
+        <f>N6+(($I$18*$C$16)/SQRT(10))</f>
+        <v>2.2537037211044064E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>3</v>
+      </c>
+      <c r="C7" s="4">
+        <v>9.0909089999999994E-3</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.98412699999999997</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0.98950263999999988</v>
+      </c>
+      <c r="J7" s="15">
+        <v>0.97851744900000004</v>
+      </c>
+      <c r="K7" s="15">
+        <v>1.00048783</v>
+      </c>
+      <c r="M7" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="N7" s="21">
+        <v>0.98773010000000006</v>
+      </c>
+      <c r="O7" s="15">
+        <f>N7-(($I$18*$D$16)/SQRT(10))</f>
+        <v>0.98001022064671717</v>
+      </c>
+      <c r="P7" s="15">
+        <f>N7+(($I$18*$D$16)/SQRT(10))</f>
+        <v>0.99544997935328294</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1.8181817999999999E-2</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.98214290000000004</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.98214290000000004</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.98214290000000004</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="19">
+        <v>0.98990594999999981</v>
+      </c>
+      <c r="J8" s="20">
+        <v>0.98278010800000004</v>
+      </c>
+      <c r="K8" s="20">
+        <v>0.99703178000000003</v>
+      </c>
+      <c r="M8" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="N8" s="21">
+        <v>0.98773010000000006</v>
+      </c>
+      <c r="O8" s="15">
+        <f>N8-(($I$18*$E$16)/SQRT(10))</f>
+        <v>0.97674567047153471</v>
+      </c>
+      <c r="P8" s="15">
+        <f>N8+(($I$18*$E$16)/SQRT(10))</f>
+        <v>0.9987145295284654</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>5</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.8181817999999999E-2</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.95744680000000004</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.97826089999999999</v>
+      </c>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="M9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N9" s="19">
+        <v>0.98773010000000006</v>
+      </c>
+      <c r="O9" s="20">
+        <f>N9-(($I$18*$F$16)/SQRT(10))</f>
+        <v>0.98060476000218766</v>
+      </c>
+      <c r="P9" s="20">
+        <f>N9+(($I$18*$F$16)/SQRT(10))</f>
+        <v>0.99485543999781245</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>6</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>7</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>8</v>
+      </c>
+      <c r="C12" s="4">
+        <v>9.1743120000000004E-3</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.9830508</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.99145300000000003</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" s="21">
+        <v>7.292616E-3</v>
+      </c>
+      <c r="J12" s="15">
+        <f>I12-(($I$18*$C$16)/SQRT(10))</f>
+        <v>-6.9897121104406379E-4</v>
+      </c>
+      <c r="K12" s="15">
+        <f>I12+(($I$18*$C$16)/SQRT(10))</f>
+        <v>1.5284203211044064E-2</v>
+      </c>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <v>9</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+      <c r="F13" s="4">
+        <v>1</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" s="21">
+        <v>0.99499170000000003</v>
+      </c>
+      <c r="J13" s="15">
+        <f>I13-(($I$18*$D$16)/SQRT(10))</f>
+        <v>0.98727182064671715</v>
+      </c>
+      <c r="K13" s="15">
+        <f>I13+(($I$18*$D$16)/SQRT(10))</f>
+        <v>1.0027115793532828</v>
+      </c>
+      <c r="M13" s="21"/>
+      <c r="N13" s="14"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>10</v>
+      </c>
+      <c r="C14" s="4">
+        <v>9.1743120000000004E-3</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.98461540000000003</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.99224809999999997</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="21">
+        <v>0.99168049999999996</v>
+      </c>
+      <c r="J14" s="15">
+        <f>I14-(($I$18*$E$16)/SQRT(10))</f>
+        <v>0.98069607047153462</v>
+      </c>
+      <c r="K14" s="15">
+        <f>I14+(($I$18*$E$16)/SQRT(10))</f>
+        <v>1.0026649295284653</v>
+      </c>
+      <c r="M14" s="15"/>
+      <c r="N14" s="14"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B15" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="11">
+        <f>AVERAGE(C5:C14)</f>
+        <v>1.0925771400000001E-2</v>
+      </c>
+      <c r="D15" s="11">
+        <f t="shared" ref="D15:F15" si="0">AVERAGE(D5:D14)</f>
+        <v>0.99045242999999983</v>
+      </c>
+      <c r="E15" s="11">
+        <f t="shared" si="0"/>
+        <v>0.98950263999999988</v>
+      </c>
+      <c r="F15" s="11">
+        <f t="shared" si="0"/>
+        <v>0.98990594999999981</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="19">
+        <v>0.99333329999999997</v>
+      </c>
+      <c r="J15" s="20">
+        <f>I15-(($I$18*$F$16)/SQRT(10))</f>
+        <v>0.98620796000218758</v>
+      </c>
+      <c r="K15" s="20">
+        <f>I15+(($I$18*$F$16)/SQRT(10))</f>
+        <v>1.0004586399978124</v>
+      </c>
+      <c r="M15" s="15"/>
+      <c r="N15" s="14"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="6">
+        <f>_xlfn.STDEV.S(C5:C14)</f>
+        <v>1.1172244786371339E-2</v>
+      </c>
+      <c r="D16" s="6">
+        <f t="shared" ref="D16:F16" si="1">_xlfn.STDEV.S(D5:D14)</f>
+        <v>1.0792397001804345E-2</v>
+      </c>
+      <c r="E16" s="6">
+        <f t="shared" si="1"/>
+        <v>1.5356240542687799E-2</v>
+      </c>
+      <c r="F16" s="6">
+        <f t="shared" si="1"/>
+        <v>9.9612305465015451E-3</v>
+      </c>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H18" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="28">
+        <v>2.262</v>
+      </c>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F19" s="14"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="25"/>
+      <c r="B20" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="14"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="25"/>
+      <c r="B21" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="14"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="25"/>
+      <c r="B22" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="21">
+        <v>7.292616E-3</v>
+      </c>
+      <c r="D22" s="15">
+        <v>-6.9897121104406379E-4</v>
+      </c>
+      <c r="E22" s="15">
+        <v>1.5284203211044064E-2</v>
+      </c>
+      <c r="F22" s="14"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="25"/>
+      <c r="B23" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="21">
+        <v>0.99499170000000003</v>
+      </c>
+      <c r="D23" s="15">
+        <v>0.98727182064671715</v>
+      </c>
+      <c r="E23" s="15">
+        <v>1.0027115793532828</v>
+      </c>
+      <c r="F23" s="14"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="21">
+        <v>0.99168049999999996</v>
+      </c>
+      <c r="D24" s="15">
+        <v>0.98069607047153462</v>
+      </c>
+      <c r="E24" s="15">
+        <v>1.0026649295284653</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B25" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="19">
+        <v>0.99333329999999997</v>
+      </c>
+      <c r="D25" s="20">
+        <v>0.98620796000218758</v>
+      </c>
+      <c r="E25" s="20">
+        <v>1.0004586399978124</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B26" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="25"/>
+      <c r="B27" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="18">
+        <v>1.454545E-2</v>
+      </c>
+      <c r="D27" s="11">
+        <v>6.5538627889559359E-3</v>
+      </c>
+      <c r="E27" s="11">
+        <v>2.2537037211044064E-2</v>
+      </c>
+      <c r="F27" s="14"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="25"/>
+      <c r="B28" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="21">
+        <v>0.98773010000000006</v>
+      </c>
+      <c r="D28" s="15">
+        <v>0.98001022064671717</v>
+      </c>
+      <c r="E28" s="15">
+        <v>0.99544997935328294</v>
+      </c>
+      <c r="F28" s="14"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="25"/>
+      <c r="B29" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="21">
+        <v>0.98773010000000006</v>
+      </c>
+      <c r="D29" s="15">
+        <v>0.97674567047153471</v>
+      </c>
+      <c r="E29" s="15">
+        <v>0.9987145295284654</v>
+      </c>
+      <c r="F29" s="14"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="25"/>
+      <c r="B30" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="19">
+        <v>0.98773010000000006</v>
+      </c>
+      <c r="D30" s="20">
+        <v>0.98060476000218766</v>
+      </c>
+      <c r="E30" s="20">
+        <v>0.99485543999781245</v>
+      </c>
+      <c r="F30" s="14"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F31" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87C9ADF6-75BF-4875-A78E-082AE315158A}">
+  <dimension ref="A2:Q31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="9.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="14"/>
+    <col min="8" max="8" width="10.42578125" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" customWidth="1"/>
+    <col min="10" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="14"/>
+    <col min="17" max="17" width="9.140625" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B2" s="3"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1.8181817999999999E-2</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.96610169999999995</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.98275860000000004</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="21">
+        <v>2.9174311800000002E-2</v>
+      </c>
+      <c r="J5" s="6">
+        <v>1.90391E-2</v>
+      </c>
+      <c r="K5" s="6">
+        <v>3.9309530000000002E-2</v>
+      </c>
+      <c r="M5" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="O5" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="P5" s="35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4">
+        <v>3.6363635999999998E-2</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.95522390000000001</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.98461540000000003</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.96969700000000003</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="15">
+        <v>0.96127172999999999</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0.94645639999999998</v>
+      </c>
+      <c r="K6" s="6">
+        <v>0.97608711000000004</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="N6" s="21">
+        <v>3.6363640000000003E-2</v>
+      </c>
+      <c r="O6" s="15">
+        <f>N6-(($I$18*$C$16)/SQRT(10))</f>
+        <v>2.6229127700447837E-2</v>
+      </c>
+      <c r="P6" s="15">
+        <f>N6+(($I$18*$C$16)/SQRT(10))</f>
+        <v>4.6498152299552169E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>3</v>
+      </c>
+      <c r="C7" s="4">
+        <v>3.6363635999999998E-2</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.94444439999999996</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.98076920000000001</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.96226420000000001</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="15">
+        <v>0.98467369999999987</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0.97380869999999997</v>
+      </c>
+      <c r="K7" s="6">
+        <v>0.9955387</v>
+      </c>
+      <c r="M7" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="N7" s="21">
+        <v>0.95705519999999999</v>
+      </c>
+      <c r="O7" s="15">
+        <f>N7-(($I$18*$D$16)/SQRT(10))</f>
+        <v>0.9422408668501755</v>
+      </c>
+      <c r="P7" s="15">
+        <f>N7+(($I$18*$D$16)/SQRT(10))</f>
+        <v>0.97186953314982449</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1.8181817999999999E-2</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.96825399999999995</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.98387100000000005</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="15">
+        <v>0.97270444</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0.96276459999999997</v>
+      </c>
+      <c r="K8" s="6">
+        <v>0.98264428000000004</v>
+      </c>
+      <c r="M8" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="N8" s="21">
+        <v>0.98113209999999995</v>
+      </c>
+      <c r="O8" s="15">
+        <f>N8-(($I$18*$E$16)/SQRT(10))</f>
+        <v>0.97026785908785806</v>
+      </c>
+      <c r="P8" s="15">
+        <f>N8+(($I$18*$E$16)/SQRT(10))</f>
+        <v>0.99199634091214184</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>5</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.8181817999999999E-2</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.96551719999999996</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.98245610000000005</v>
+      </c>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="M9" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="N9" s="21">
+        <v>0.96894409999999997</v>
+      </c>
+      <c r="O9" s="15">
+        <f>N9-(($I$18*$F$16)/SQRT(10))</f>
+        <v>0.95900494656893487</v>
+      </c>
+      <c r="P9" s="15">
+        <f>N9+(($I$18*$F$16)/SQRT(10))</f>
+        <v>0.97888325343106508</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>6</v>
+      </c>
+      <c r="C10" s="4">
+        <v>4.5454544999999999E-2</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.95161289999999998</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.96721310000000005</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.95934960000000002</v>
+      </c>
+      <c r="H10" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>7</v>
+      </c>
+      <c r="C11" s="4">
+        <v>2.7272727E-2</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.97058820000000001</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.98507460000000002</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.97777780000000003</v>
+      </c>
+      <c r="H11" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>8</v>
+      </c>
+      <c r="C12" s="4">
+        <v>9.1743120000000004E-3</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.9830508</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.99145300000000003</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" s="21">
+        <v>2.9170459999999999E-2</v>
+      </c>
+      <c r="J12" s="15">
+        <f>I12-(($I$18*$C$16)/SQRT(10))</f>
+        <v>1.9035947700447833E-2</v>
+      </c>
+      <c r="K12" s="15">
+        <f>I12+(($I$18*$C$16)/SQRT(10))</f>
+        <v>3.9304972299552168E-2</v>
+      </c>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <v>9</v>
+      </c>
+      <c r="C13" s="4">
+        <v>2.7522936000000001E-2</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.94545449999999998</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.97196260000000001</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" s="21">
+        <v>0.966611</v>
+      </c>
+      <c r="J13" s="15">
+        <f>I13-(($I$18*$D$16)/SQRT(10))</f>
+        <v>0.9517966668501755</v>
+      </c>
+      <c r="K13" s="15">
+        <f>I13+(($I$18*$D$16)/SQRT(10))</f>
+        <v>0.9814253331498245</v>
+      </c>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>10</v>
+      </c>
+      <c r="C14" s="4">
+        <v>5.5045872000000003E-2</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.92857140000000005</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.96296300000000001</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.94545449999999998</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="21">
+        <v>0.97969539999999999</v>
+      </c>
+      <c r="J14" s="15">
+        <f>I14-(($I$18*$E$16)/SQRT(10))</f>
+        <v>0.96883115908785811</v>
+      </c>
+      <c r="K14" s="15">
+        <f>I14+(($I$18*$E$16)/SQRT(10))</f>
+        <v>0.99055964091214188</v>
+      </c>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B15" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="11">
+        <f>AVERAGE(C5:C14)</f>
+        <v>2.9174311800000002E-2</v>
+      </c>
+      <c r="D15" s="11">
+        <f t="shared" ref="D15:F15" si="0">AVERAGE(D5:D14)</f>
+        <v>0.96127172999999999</v>
+      </c>
+      <c r="E15" s="11">
+        <f t="shared" si="0"/>
+        <v>0.98467369999999987</v>
+      </c>
+      <c r="F15" s="11">
+        <f t="shared" si="0"/>
+        <v>0.97270444</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="21">
+        <v>0.97310920000000001</v>
+      </c>
+      <c r="J15" s="15">
+        <f>I15-(($I$18*$F$16)/SQRT(10))</f>
+        <v>0.9631700465689349</v>
+      </c>
+      <c r="K15" s="15">
+        <f>I15+(($I$18*$F$16)/SQRT(10))</f>
+        <v>0.98304835343106511</v>
+      </c>
+      <c r="M15" s="21"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="14"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="6">
+        <f>_xlfn.STDEV.S(C5:C14)</f>
+        <v>1.4168055632880408E-2</v>
+      </c>
+      <c r="D16" s="6">
+        <f t="shared" ref="D16:F16" si="1">_xlfn.STDEV.S(D5:D14)</f>
+        <v>2.0710448616260771E-2</v>
+      </c>
+      <c r="E16" s="6">
+        <f t="shared" si="1"/>
+        <v>1.518821676885663E-2</v>
+      </c>
+      <c r="F16" s="6">
+        <f t="shared" si="1"/>
+        <v>1.3894943791354083E-2</v>
+      </c>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="14"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H18" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="28">
+        <v>2.262</v>
+      </c>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F19" s="14"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="25"/>
+      <c r="B20" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="14"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="25"/>
+      <c r="B21" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="14"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="25"/>
+      <c r="B22" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="21">
+        <v>2.9170459999999999E-2</v>
+      </c>
+      <c r="D22" s="15">
+        <v>1.9035947700447833E-2</v>
+      </c>
+      <c r="E22" s="15">
+        <v>3.9304972299552168E-2</v>
+      </c>
+      <c r="F22" s="14"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="25"/>
+      <c r="B23" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="21">
+        <v>0.966611</v>
+      </c>
+      <c r="D23" s="15">
+        <v>0.9517966668501755</v>
+      </c>
+      <c r="E23" s="15">
+        <v>0.9814253331498245</v>
+      </c>
+      <c r="F23" s="14"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="21">
+        <v>0.97969539999999999</v>
+      </c>
+      <c r="D24" s="15">
+        <v>0.96883115908785811</v>
+      </c>
+      <c r="E24" s="15">
+        <v>0.99055964091214188</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="19">
+        <v>0.97310920000000001</v>
+      </c>
+      <c r="D25" s="20">
+        <v>0.9631700465689349</v>
+      </c>
+      <c r="E25" s="20">
+        <v>0.98304835343106511</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="25"/>
+      <c r="B27" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="18">
+        <v>3.6363640000000003E-2</v>
+      </c>
+      <c r="D27" s="11">
+        <v>2.6229127700447837E-2</v>
+      </c>
+      <c r="E27" s="11">
+        <v>4.6498152299552169E-2</v>
+      </c>
+      <c r="F27" s="14"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="25"/>
+      <c r="B28" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="21">
+        <v>0.95705519999999999</v>
+      </c>
+      <c r="D28" s="15">
+        <v>0.9422408668501755</v>
+      </c>
+      <c r="E28" s="15">
+        <v>0.97186953314982449</v>
+      </c>
+      <c r="F28" s="14"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="25"/>
+      <c r="B29" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="21">
+        <v>0.98113209999999995</v>
+      </c>
+      <c r="D29" s="15">
+        <v>0.97026785908785806</v>
+      </c>
+      <c r="E29" s="15">
+        <v>0.99199634091214184</v>
+      </c>
+      <c r="F29" s="14"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="25"/>
+      <c r="B30" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="19">
+        <v>0.96894409999999997</v>
+      </c>
+      <c r="D30" s="20">
+        <v>0.95900494656893487</v>
+      </c>
+      <c r="E30" s="20">
+        <v>0.97888325343106508</v>
+      </c>
+      <c r="F30" s="14"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F31" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Results/_general.xlsx
+++ b/Results/_general.xlsx
@@ -8,18 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jairp\Documents\GitHub\AM-Projeto_UFPE2020\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80AF1578-EB96-4F39-A93D-C46DD17F89DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{426A62B5-E1E6-4475-A49B-A260042B8F1D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19680" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="18510" windowHeight="11040" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
     <sheet name="Folha1" sheetId="2" r:id="rId2"/>
-    <sheet name="CBG" sheetId="3" r:id="rId3"/>
-    <sheet name="KNN" sheetId="4" r:id="rId4"/>
-    <sheet name="Parzen" sheetId="7" r:id="rId5"/>
-    <sheet name="RL" sheetId="5" r:id="rId6"/>
-    <sheet name="RLR" sheetId="6" r:id="rId7"/>
+    <sheet name="CBG" sheetId="3" state="hidden" r:id="rId3"/>
+    <sheet name="CBG_cv" sheetId="9" r:id="rId4"/>
+    <sheet name="KNN_cv" sheetId="10" r:id="rId5"/>
+    <sheet name="KNN" sheetId="4" state="hidden" r:id="rId6"/>
+    <sheet name="Parzen" sheetId="7" state="hidden" r:id="rId7"/>
+    <sheet name="CBP_cv" sheetId="11" r:id="rId8"/>
+    <sheet name="RL_cv" sheetId="12" r:id="rId9"/>
+    <sheet name="RL" sheetId="5" state="hidden" r:id="rId10"/>
+    <sheet name="RLR" sheetId="6" state="hidden" r:id="rId11"/>
+    <sheet name="RLR_cv" sheetId="13" r:id="rId12"/>
+    <sheet name="enm" sheetId="8" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="58">
   <si>
     <t>rl</t>
   </si>
@@ -161,6 +167,60 @@
   <si>
     <t>h</t>
   </si>
+  <si>
+    <t>CBG</t>
+  </si>
+  <si>
+    <t>KNN</t>
+  </si>
+  <si>
+    <t>Parzen</t>
+  </si>
+  <si>
+    <t>LR</t>
+  </si>
+  <si>
+    <t>LRR</t>
+  </si>
+  <si>
+    <t>EVM</t>
+  </si>
+  <si>
+    <t>Tab. 01: Métricas de avaliação  para o modelo CBG considerando os 10 \textit{folds} utilizados na validação cruzada, suas médias e desvios padrão (s).</t>
+  </si>
+  <si>
+    <t>Tab. 02: Métricas de avaliação e seus intervalos de confiança, considerando $\alpha=5\%$, para o modelo CBG.</t>
+  </si>
+  <si>
+    <t>Tab. 01: Métricas de avaliação  para o modelo KNN considerando os 10 \textit{folds} utilizados na validação cruzada, suas médias e desvios padrão (s).</t>
+  </si>
+  <si>
+    <t>Tab. 02: Métricas de avaliação e seus intervalos de confiança, considerando $\alpha=5\%$, para o modelo KNN.</t>
+  </si>
+  <si>
+    <t>Tab. 01: Métricas de avaliação  para o modelo CBP considerando os 10 \textit{folds} utilizados na validação cruzada, suas médias e desvios padrão (s).</t>
+  </si>
+  <si>
+    <t>Inf.</t>
+  </si>
+  <si>
+    <t>Sup.</t>
+  </si>
+  <si>
+    <t>Tab. 02: Métricas de avaliação e seus intervalos de confiança, considerando $\alpha=5\%$, para o modelo CBP.</t>
+  </si>
+  <si>
+    <t>Tab. 02: Métricas de avaliação e seus intervalos de confiança, considerando $\alpha=5\%$, para o modelo RL.</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>Tab. 01: Métricas de avaliação  para o modelo RLR considerando os 10 \textit{folds} utilizados na validação cruzada, suas médias e desvios padrão (s).</t>
+  </si>
+  <si>
+    <t>Tab. 01: Métricas de avaliação  para o modelo RL considerando os 10 \textit{folds} utilizados na validação cruzada, suas médias e desvios padrão (s).</t>
+  </si>
 </sst>
 </file>
 
@@ -269,7 +329,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -352,10 +412,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -415,17 +471,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>General!$C$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ErroRate</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -438,7 +483,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>General!$B$12:$B$17</c:f>
+              <c:f>General!$B$4:$B$9</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -464,32 +509,41 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>General!$C$12:$C$17</c:f>
+              <c:f>General!$C$4:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.14545449999999999</c:v>
+                  <c:v>0.1613491</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.0909089999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.454545E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.6363640000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.9090910000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>General!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>#REF!</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9899-4C9B-B89E-4EE38002A3D5}"/>
             </c:ext>
@@ -498,17 +552,6 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>General!$D$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Precision</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent2"/>
@@ -521,7 +564,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>General!$B$12:$B$17</c:f>
+              <c:f>General!$B$4:$B$9</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -547,32 +590,41 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>General!$D$12:$D$17</c:f>
+              <c:f>General!$D$4:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.90184050000000004</c:v>
+                  <c:v>0.87646080000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.92638039999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.98773010000000006</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.95705519999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.9631902</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>General!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>#REF!</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-9899-4C9B-B89E-4EE38002A3D5}"/>
             </c:ext>
@@ -581,17 +633,6 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>General!$E$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>recall</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent3"/>
@@ -604,7 +645,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>General!$B$12:$B$17</c:f>
+              <c:f>General!$B$4:$B$9</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -630,32 +671,41 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>General!$E$12:$E$17</c:f>
+              <c:f>General!$E$4:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.85964910000000005</c:v>
+                  <c:v>0.83598729999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.98692809999999997</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.98773010000000006</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.98113209999999995</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.9874214</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>General!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>#REF!</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-9899-4C9B-B89E-4EE38002A3D5}"/>
             </c:ext>
@@ -664,17 +714,6 @@
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>General!$F$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>F1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent4"/>
@@ -687,7 +726,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>General!$B$12:$B$17</c:f>
+              <c:f>General!$B$4:$B$9</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -713,32 +752,41 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>General!$F$12:$F$17</c:f>
+              <c:f>General!$F$4:$F$9</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.88023949999999995</c:v>
+                  <c:v>0.85574570000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.9556962</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.98773010000000006</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.96894409999999997</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.97515499999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>General!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>#REF!</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-9899-4C9B-B89E-4EE38002A3D5}"/>
             </c:ext>
@@ -1496,15 +1544,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>577607</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>94028</xdr:rowOff>
+      <xdr:colOff>529982</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>157529</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>592261</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>171816</xdr:rowOff>
+      <xdr:colOff>544636</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>52754</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1798,7 +1846,7 @@
   <dimension ref="B1:G17"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1807,325 +1855,141 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="B2" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="21">
-        <v>0.1613491</v>
-      </c>
-      <c r="D3" s="21">
-        <v>0.87646080000000004</v>
-      </c>
-      <c r="E3" s="21">
-        <v>0.83598729999999999</v>
-      </c>
-      <c r="F3" s="21">
-        <v>0.85574570000000005</v>
+        <v>9</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>6</v>
       </c>
       <c r="G3" s="14"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C4" s="21">
-        <v>9.1743119999999998E-4</v>
+        <v>0.1613491</v>
       </c>
       <c r="D4" s="21">
-        <v>0.99833329999999998</v>
+        <v>0.87646080000000004</v>
       </c>
       <c r="E4" s="21">
-        <v>1</v>
-      </c>
-      <c r="F4" s="21">
-        <v>0.99915969999999998</v>
+        <v>0.83598729999999999</v>
+      </c>
+      <c r="F4" s="19">
+        <v>0.85574570000000005</v>
       </c>
       <c r="G4" s="14"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="30">
-        <v>3.7374659999999997E-2</v>
-      </c>
-      <c r="D5" s="30">
-        <v>0.94156930000000005</v>
-      </c>
-      <c r="E5" s="30">
-        <v>0.98947370000000001</v>
-      </c>
-      <c r="F5" s="30">
-        <v>0.96492730000000004</v>
+        <v>7</v>
+      </c>
+      <c r="C5" s="21">
+        <v>0</v>
+      </c>
+      <c r="D5" s="21">
+        <v>1</v>
+      </c>
+      <c r="E5" s="21">
+        <v>1</v>
+      </c>
+      <c r="F5" s="19">
+        <v>1</v>
       </c>
       <c r="G5" s="14"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="21">
-        <v>7.292616E-3</v>
-      </c>
-      <c r="D6" s="21">
-        <v>0.99499170000000003</v>
-      </c>
-      <c r="E6" s="21">
-        <v>0.99168049999999996</v>
-      </c>
-      <c r="F6" s="21">
-        <v>0.99333329999999997</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
       <c r="G6" s="14"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="21">
-        <v>2.9170459999999999E-2</v>
-      </c>
-      <c r="D7" s="21">
-        <v>0.966611</v>
-      </c>
-      <c r="E7" s="21">
-        <v>0.97969539999999999</v>
-      </c>
-      <c r="F7" s="21">
-        <v>0.97310920000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
       <c r="G7" s="14"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="14"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="14"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="6"/>
       <c r="G9" s="14"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
       <c r="G10" s="14"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>6</v>
-      </c>
       <c r="G11" s="14"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="21">
-        <v>0.14545449999999999</v>
-      </c>
-      <c r="D12" s="21">
-        <v>0.90184050000000004</v>
-      </c>
-      <c r="E12" s="21">
-        <v>0.85964910000000005</v>
-      </c>
-      <c r="F12" s="21">
-        <v>0.88023949999999995</v>
-      </c>
       <c r="G12" s="14"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="21">
-        <v>0</v>
-      </c>
-      <c r="D13" s="21">
-        <v>1</v>
-      </c>
-      <c r="E13" s="21">
-        <v>1</v>
-      </c>
-      <c r="F13" s="21">
-        <v>1</v>
-      </c>
       <c r="G13" s="14"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="6">
-        <v>5.0909089999999997E-2</v>
-      </c>
-      <c r="D14" s="6">
-        <v>0.92638039999999999</v>
-      </c>
-      <c r="E14" s="6">
-        <v>0.98692809999999997</v>
-      </c>
-      <c r="F14" s="6">
-        <v>0.9556962</v>
-      </c>
       <c r="G14" s="14"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="21">
-        <v>1.454545E-2</v>
-      </c>
-      <c r="D15" s="21">
-        <v>0.98773010000000006</v>
-      </c>
-      <c r="E15" s="21">
-        <v>0.98773010000000006</v>
-      </c>
-      <c r="F15" s="21">
-        <v>0.98773010000000006</v>
-      </c>
       <c r="G15" s="14"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="21">
-        <v>3.6363640000000003E-2</v>
-      </c>
-      <c r="D16" s="21">
-        <v>0.95705519999999999</v>
-      </c>
-      <c r="E16" s="21">
-        <v>0.98113209999999995</v>
-      </c>
-      <c r="F16" s="21">
-        <v>0.96894409999999997</v>
-      </c>
       <c r="G16" s="14"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="37">
-        <v>2.9090910000000001E-2</v>
-      </c>
-      <c r="D17" s="37">
-        <v>0.9631902</v>
-      </c>
-      <c r="E17" s="37">
-        <v>0.9874214</v>
-      </c>
-      <c r="F17" s="6">
-        <v>0.97515499999999999</v>
-      </c>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G17" s="14"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C3:C8">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D8">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E8">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F8">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12:C17">
+  <conditionalFormatting sqref="C4:C9">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -2137,7 +2001,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12:D17">
+  <conditionalFormatting sqref="D4:D9">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -2149,7 +2013,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E17">
+  <conditionalFormatting sqref="E4:E9">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -2161,7 +2025,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F12:F17">
+  <conditionalFormatting sqref="F4:F9">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -2179,75 +2043,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD517A62-35DA-4179-8663-B4E3D8DD6E82}">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="36">
-        <v>1</v>
-      </c>
-      <c r="B1" s="36">
-        <v>0.2065726</v>
-      </c>
-      <c r="C1" s="36">
-        <v>0.25838149999999999</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="36">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>0.86361520000000003</v>
-      </c>
-      <c r="C2">
-        <v>0.91693210000000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>0.7010419</v>
-      </c>
-      <c r="C3">
-        <v>0.77677499999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>0.78286770000000006</v>
-      </c>
-      <c r="C4">
-        <v>0.82928389999999996</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E5126F3-C5DC-4911-8B13-A3635AD2C868}">
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2401DB22-3303-4B86-BFB0-0080C64FED13}">
   <dimension ref="A2:Q31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:F5"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2268,10 +2069,10 @@
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
@@ -2303,7 +2104,7 @@
         <v>16</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
@@ -2311,28 +2112,28 @@
         <v>1</v>
       </c>
       <c r="C5" s="4">
-        <v>0.109090909090909</v>
+        <v>3.6363635999999998E-2</v>
       </c>
       <c r="D5" s="4">
-        <v>0.89552238805970197</v>
+        <v>0.97058820000000001</v>
       </c>
       <c r="E5" s="4">
-        <v>0.92307692307692302</v>
+        <v>0.97058820000000001</v>
       </c>
       <c r="F5" s="4">
-        <v>0.90909090909090895</v>
+        <v>0.97058820000000001</v>
       </c>
       <c r="H5" s="17" t="s">
         <v>3</v>
       </c>
       <c r="I5" s="18">
-        <v>0.15955800000000001</v>
+        <v>1.0925771400000001E-2</v>
       </c>
       <c r="J5" s="11">
-        <v>0.13872473147162501</v>
+        <v>2.9336290000000001E-3</v>
       </c>
       <c r="K5" s="11">
-        <v>0.18039119846999299</v>
+        <v>1.891791E-2</v>
       </c>
       <c r="M5" s="24" t="s">
         <v>17</v>
@@ -2352,42 +2153,42 @@
         <v>2</v>
       </c>
       <c r="C6" s="4">
-        <v>0.145454545454546</v>
+        <v>9.0909089999999994E-3</v>
       </c>
       <c r="D6" s="4">
-        <v>0.87037037037037002</v>
+        <v>1</v>
       </c>
       <c r="E6" s="4">
-        <v>0.83928571428571397</v>
+        <v>0.98484850000000002</v>
       </c>
       <c r="F6" s="4">
-        <v>0.85454545454545505</v>
+        <v>0.99236639999999998</v>
       </c>
       <c r="H6" s="13" t="s">
         <v>4</v>
       </c>
       <c r="I6" s="4">
-        <v>0.88075210000000004</v>
+        <v>0.99045242999999983</v>
       </c>
       <c r="J6" s="15">
-        <v>0.85513957426825205</v>
+        <v>0.98273201899999996</v>
       </c>
       <c r="K6" s="15">
-        <v>0.90636456732231596</v>
+        <v>0.99817283999999995</v>
       </c>
       <c r="M6" s="13" t="s">
         <v>3</v>
       </c>
       <c r="N6" s="21">
-        <v>0.14545449999999999</v>
+        <v>1.454545E-2</v>
       </c>
       <c r="O6" s="15">
         <f>N6-(($I$18*$C$16)/SQRT(10))</f>
-        <v>0.12462271388445784</v>
+        <v>6.5538627889559359E-3</v>
       </c>
       <c r="P6" s="15">
         <f>N6+(($I$18*$C$16)/SQRT(10))</f>
-        <v>0.16628628611554214</v>
+        <v>2.2537037211044064E-2</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
@@ -2395,42 +2196,42 @@
         <v>3</v>
       </c>
       <c r="C7" s="4">
-        <v>0.13636363636363599</v>
+        <v>9.0909089999999994E-3</v>
       </c>
       <c r="D7" s="4">
-        <v>0.921875</v>
+        <v>0.98412699999999997</v>
       </c>
       <c r="E7" s="4">
-        <v>0.85507246376811596</v>
+        <v>1</v>
       </c>
       <c r="F7" s="4">
-        <v>0.88721804511278202</v>
+        <v>0.99199999999999999</v>
       </c>
       <c r="H7" s="13" t="s">
         <v>11</v>
       </c>
       <c r="I7" s="4">
-        <v>0.83481609999999995</v>
+        <v>0.98950263999999988</v>
       </c>
       <c r="J7" s="15">
-        <v>0.79357943810047704</v>
+        <v>0.97851744900000004</v>
       </c>
       <c r="K7" s="15">
-        <v>0.87605271725213296</v>
+        <v>1.00048783</v>
       </c>
       <c r="M7" s="13" t="s">
         <v>4</v>
       </c>
       <c r="N7" s="21">
-        <v>0.90184050000000004</v>
+        <v>0.98773010000000006</v>
       </c>
       <c r="O7" s="15">
         <f>N7-(($I$18*$D$16)/SQRT(10))</f>
-        <v>0.87622978289470288</v>
+        <v>0.98001022064671717</v>
       </c>
       <c r="P7" s="15">
         <f>N7+(($I$18*$D$16)/SQRT(10))</f>
-        <v>0.92745121710529721</v>
+        <v>0.99544997935328294</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
@@ -2438,42 +2239,42 @@
         <v>4</v>
       </c>
       <c r="C8" s="4">
-        <v>0.18181818181818199</v>
+        <v>1.8181817999999999E-2</v>
       </c>
       <c r="D8" s="4">
-        <v>0.82352941176470595</v>
+        <v>0.98214290000000004</v>
       </c>
       <c r="E8" s="4">
-        <v>0.875</v>
+        <v>0.98214290000000004</v>
       </c>
       <c r="F8" s="4">
-        <v>0.84848484848484895</v>
+        <v>0.98214290000000004</v>
       </c>
       <c r="H8" s="8" t="s">
         <v>19</v>
       </c>
       <c r="I8" s="19">
-        <v>0.85564379999999995</v>
+        <v>0.98990594999999981</v>
       </c>
       <c r="J8" s="20">
-        <v>0.83303708119076203</v>
+        <v>0.98278010800000004</v>
       </c>
       <c r="K8" s="20">
-        <v>0.87825053556716504</v>
+        <v>0.99703178000000003</v>
       </c>
       <c r="M8" s="13" t="s">
         <v>11</v>
       </c>
       <c r="N8" s="21">
-        <v>0.85964910000000005</v>
+        <v>0.98773010000000006</v>
       </c>
       <c r="O8" s="15">
         <f>N8-(($I$18*$E$16)/SQRT(10))</f>
-        <v>0.81841532532930361</v>
+        <v>0.97674567047153471</v>
       </c>
       <c r="P8" s="15">
         <f>N8+(($I$18*$E$16)/SQRT(10))</f>
-        <v>0.9008828746706965</v>
+        <v>0.9987145295284654</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
@@ -2481,16 +2282,16 @@
         <v>5</v>
       </c>
       <c r="C9" s="4">
-        <v>0.15454545454545501</v>
+        <v>1.8181817999999999E-2</v>
       </c>
       <c r="D9" s="4">
-        <v>0.88461538461538503</v>
+        <v>1</v>
       </c>
       <c r="E9" s="4">
-        <v>0.80701754385964897</v>
+        <v>0.95744680000000004</v>
       </c>
       <c r="F9" s="4">
-        <v>0.84403669724770602</v>
+        <v>0.97826089999999999</v>
       </c>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
@@ -2500,15 +2301,15 @@
         <v>19</v>
       </c>
       <c r="N9" s="19">
-        <v>0.88023949999999995</v>
+        <v>0.98773010000000006</v>
       </c>
       <c r="O9" s="20">
         <f>N9-(($I$18*$F$16)/SQRT(10))</f>
-        <v>0.85763434340846689</v>
+        <v>0.98060476000218766</v>
       </c>
       <c r="P9" s="20">
         <f>N9+(($I$18*$F$16)/SQRT(10))</f>
-        <v>0.90284465659153301</v>
+        <v>0.99485543999781245</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
@@ -2516,19 +2317,19 @@
         <v>6</v>
       </c>
       <c r="C10" s="4">
-        <v>0.17272727272727301</v>
+        <v>0</v>
       </c>
       <c r="D10" s="4">
-        <v>0.92156862745098</v>
+        <v>1</v>
       </c>
       <c r="E10" s="4">
-        <v>0.75806451612903203</v>
+        <v>1</v>
       </c>
       <c r="F10" s="4">
-        <v>0.83185840707964598</v>
+        <v>1</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="M10" s="14"/>
       <c r="N10" s="14"/>
@@ -2540,16 +2341,16 @@
         <v>7</v>
       </c>
       <c r="C11" s="4">
-        <v>0.18181818181818199</v>
+        <v>0</v>
       </c>
       <c r="D11" s="4">
-        <v>0.82608695652173902</v>
+        <v>1</v>
       </c>
       <c r="E11" s="4">
-        <v>0.87692307692307703</v>
+        <v>1</v>
       </c>
       <c r="F11" s="4">
-        <v>0.85074626865671599</v>
+        <v>1</v>
       </c>
       <c r="H11" s="24" t="s">
         <v>17</v>
@@ -2573,30 +2374,30 @@
         <v>8</v>
       </c>
       <c r="C12" s="4">
-        <v>0.13761467889908299</v>
+        <v>9.1743120000000004E-3</v>
       </c>
       <c r="D12" s="4">
-        <v>0.91304347826086996</v>
+        <v>0.9830508</v>
       </c>
       <c r="E12" s="4">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="F12" s="4">
-        <v>0.89361702127659604</v>
+        <v>0.99145300000000003</v>
       </c>
       <c r="H12" s="13" t="s">
         <v>3</v>
       </c>
       <c r="I12" s="21">
-        <v>0.1613491</v>
+        <v>7.292616E-3</v>
       </c>
       <c r="J12" s="15">
         <f>I12-(($I$18*$C$16)/SQRT(10))</f>
-        <v>0.14051731388445785</v>
+        <v>-6.9897121104406379E-4</v>
       </c>
       <c r="K12" s="15">
         <f>I12+(($I$18*$C$16)/SQRT(10))</f>
-        <v>0.18218088611554215</v>
+        <v>1.5284203211044064E-2</v>
       </c>
       <c r="M12" s="14"/>
       <c r="N12" s="14"/>
@@ -2608,62 +2409,66 @@
         <v>9</v>
       </c>
       <c r="C13" s="4">
-        <v>0.16513761467889901</v>
+        <v>0</v>
       </c>
       <c r="D13" s="4">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="E13" s="4">
-        <v>0.79629629629629595</v>
+        <v>1</v>
       </c>
       <c r="F13" s="4">
-        <v>0.82692307692307698</v>
+        <v>1</v>
       </c>
       <c r="H13" s="13" t="s">
         <v>4</v>
       </c>
       <c r="I13" s="21">
-        <v>0.87646080000000004</v>
+        <v>0.99499170000000003</v>
       </c>
       <c r="J13" s="15">
         <f>I13-(($I$18*$D$16)/SQRT(10))</f>
-        <v>0.85085008289470287</v>
+        <v>0.98727182064671715</v>
       </c>
       <c r="K13" s="15">
         <f>I13+(($I$18*$D$16)/SQRT(10))</f>
-        <v>0.9020715171052972</v>
-      </c>
+        <v>1.0027115793532828</v>
+      </c>
+      <c r="M13" s="21"/>
+      <c r="N13" s="14"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <v>10</v>
       </c>
       <c r="C14" s="4">
-        <v>0.21100917431192701</v>
+        <v>9.1743120000000004E-3</v>
       </c>
       <c r="D14" s="4">
-        <v>0.89090909090909098</v>
+        <v>0.98461540000000003</v>
       </c>
       <c r="E14" s="4">
-        <v>0.74242424242424199</v>
+        <v>1</v>
       </c>
       <c r="F14" s="4">
-        <v>0.80991735537190102</v>
+        <v>0.99224809999999997</v>
       </c>
       <c r="H14" s="13" t="s">
         <v>11</v>
       </c>
       <c r="I14" s="21">
-        <v>0.83598729999999999</v>
+        <v>0.99168049999999996</v>
       </c>
       <c r="J14" s="15">
         <f>I14-(($I$18*$E$16)/SQRT(10))</f>
-        <v>0.79475352532930355</v>
+        <v>0.98069607047153462</v>
       </c>
       <c r="K14" s="15">
         <f>I14+(($I$18*$E$16)/SQRT(10))</f>
-        <v>0.87722107467069643</v>
-      </c>
+        <v>1.0026649295284653</v>
+      </c>
+      <c r="M14" s="15"/>
+      <c r="N14" s="14"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
@@ -2671,34 +2476,36 @@
       </c>
       <c r="C15" s="11">
         <f>AVERAGE(C5:C14)</f>
-        <v>0.15955796497080921</v>
+        <v>1.0925771400000001E-2</v>
       </c>
       <c r="D15" s="11">
         <f t="shared" ref="D15:F15" si="0">AVERAGE(D5:D14)</f>
-        <v>0.88075207079528428</v>
+        <v>0.99045242999999983</v>
       </c>
       <c r="E15" s="11">
         <f t="shared" si="0"/>
-        <v>0.83481607767630484</v>
+        <v>0.98950263999999988</v>
       </c>
       <c r="F15" s="11">
         <f t="shared" si="0"/>
-        <v>0.8556438083789637</v>
+        <v>0.98990594999999981</v>
       </c>
       <c r="H15" s="8" t="s">
         <v>19</v>
       </c>
       <c r="I15" s="19">
-        <v>0.85574570000000005</v>
+        <v>0.99333329999999997</v>
       </c>
       <c r="J15" s="20">
         <f>I15-(($I$18*$F$16)/SQRT(10))</f>
-        <v>0.83314054340846699</v>
+        <v>0.98620796000218758</v>
       </c>
       <c r="K15" s="20">
         <f>I15+(($I$18*$F$16)/SQRT(10))</f>
-        <v>0.87835085659153311</v>
-      </c>
+        <v>1.0004586399978124</v>
+      </c>
+      <c r="M15" s="15"/>
+      <c r="N15" s="14"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
@@ -2706,24 +2513,737 @@
       </c>
       <c r="C16" s="6">
         <f>_xlfn.STDEV.S(C5:C14)</f>
-        <v>2.9122852278773106E-2</v>
+        <v>1.1172244786371339E-2</v>
       </c>
       <c r="D16" s="6">
         <f t="shared" ref="D16:F16" si="1">_xlfn.STDEV.S(D5:D14)</f>
-        <v>3.5803801309890915E-2</v>
+        <v>1.0792397001804345E-2</v>
       </c>
       <c r="E16" s="6">
         <f t="shared" si="1"/>
-        <v>5.7644847252679043E-2</v>
+        <v>1.5356240542687799E-2</v>
       </c>
       <c r="F16" s="6">
         <f t="shared" si="1"/>
-        <v>3.1602025505752834E-2</v>
+        <v>9.9612305465015451E-3</v>
       </c>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
       <c r="K16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H18" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="28">
+        <v>2.262</v>
+      </c>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F19" s="14"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="25"/>
+      <c r="B20" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="14"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="25"/>
+      <c r="B21" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="14"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="25"/>
+      <c r="B22" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="21">
+        <v>7.292616E-3</v>
+      </c>
+      <c r="D22" s="15">
+        <v>-6.9897121104406379E-4</v>
+      </c>
+      <c r="E22" s="15">
+        <v>1.5284203211044064E-2</v>
+      </c>
+      <c r="F22" s="14"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="25"/>
+      <c r="B23" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="21">
+        <v>0.99499170000000003</v>
+      </c>
+      <c r="D23" s="15">
+        <v>0.98727182064671715</v>
+      </c>
+      <c r="E23" s="15">
+        <v>1.0027115793532828</v>
+      </c>
+      <c r="F23" s="14"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="21">
+        <v>0.99168049999999996</v>
+      </c>
+      <c r="D24" s="15">
+        <v>0.98069607047153462</v>
+      </c>
+      <c r="E24" s="15">
+        <v>1.0026649295284653</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B25" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="19">
+        <v>0.99333329999999997</v>
+      </c>
+      <c r="D25" s="20">
+        <v>0.98620796000218758</v>
+      </c>
+      <c r="E25" s="20">
+        <v>1.0004586399978124</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B26" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="25"/>
+      <c r="B27" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="18">
+        <v>1.454545E-2</v>
+      </c>
+      <c r="D27" s="11">
+        <v>6.5538627889559359E-3</v>
+      </c>
+      <c r="E27" s="11">
+        <v>2.2537037211044064E-2</v>
+      </c>
+      <c r="F27" s="14"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="25"/>
+      <c r="B28" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="21">
+        <v>0.98773010000000006</v>
+      </c>
+      <c r="D28" s="15">
+        <v>0.98001022064671717</v>
+      </c>
+      <c r="E28" s="15">
+        <v>0.99544997935328294</v>
+      </c>
+      <c r="F28" s="14"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="25"/>
+      <c r="B29" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="21">
+        <v>0.98773010000000006</v>
+      </c>
+      <c r="D29" s="15">
+        <v>0.97674567047153471</v>
+      </c>
+      <c r="E29" s="15">
+        <v>0.9987145295284654</v>
+      </c>
+      <c r="F29" s="14"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="25"/>
+      <c r="B30" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="19">
+        <v>0.98773010000000006</v>
+      </c>
+      <c r="D30" s="20">
+        <v>0.98060476000218766</v>
+      </c>
+      <c r="E30" s="20">
+        <v>0.99485543999781245</v>
+      </c>
+      <c r="F30" s="14"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F31" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87C9ADF6-75BF-4875-A78E-082AE315158A}">
+  <dimension ref="A2:Q31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A4" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="9.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="14"/>
+    <col min="8" max="8" width="10.42578125" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" customWidth="1"/>
+    <col min="10" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="14"/>
+    <col min="17" max="17" width="9.140625" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B2" s="3"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1.8181817999999999E-2</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.96610169999999995</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.98275860000000004</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="21">
+        <v>2.9174311800000002E-2</v>
+      </c>
+      <c r="J5" s="6">
+        <v>1.90391E-2</v>
+      </c>
+      <c r="K5" s="6">
+        <v>3.9309530000000002E-2</v>
+      </c>
+      <c r="M5" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="O5" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="P5" s="33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4">
+        <v>3.6363635999999998E-2</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.95522390000000001</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.98461540000000003</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.96969700000000003</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="15">
+        <v>0.96127172999999999</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0.94645639999999998</v>
+      </c>
+      <c r="K6" s="6">
+        <v>0.97608711000000004</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="N6" s="21">
+        <v>3.6363640000000003E-2</v>
+      </c>
+      <c r="O6" s="15">
+        <f>N6-(($I$18*$C$16)/SQRT(10))</f>
+        <v>2.6229127700447837E-2</v>
+      </c>
+      <c r="P6" s="15">
+        <f>N6+(($I$18*$C$16)/SQRT(10))</f>
+        <v>4.6498152299552169E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>3</v>
+      </c>
+      <c r="C7" s="4">
+        <v>3.6363635999999998E-2</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.94444439999999996</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.98076920000000001</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.96226420000000001</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="15">
+        <v>0.98467369999999987</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0.97380869999999997</v>
+      </c>
+      <c r="K7" s="6">
+        <v>0.9955387</v>
+      </c>
+      <c r="M7" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="N7" s="21">
+        <v>0.95705519999999999</v>
+      </c>
+      <c r="O7" s="15">
+        <f>N7-(($I$18*$D$16)/SQRT(10))</f>
+        <v>0.9422408668501755</v>
+      </c>
+      <c r="P7" s="15">
+        <f>N7+(($I$18*$D$16)/SQRT(10))</f>
+        <v>0.97186953314982449</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1.8181817999999999E-2</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.96825399999999995</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.98387100000000005</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="15">
+        <v>0.97270444</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0.96276459999999997</v>
+      </c>
+      <c r="K8" s="6">
+        <v>0.98264428000000004</v>
+      </c>
+      <c r="M8" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="N8" s="21">
+        <v>0.98113209999999995</v>
+      </c>
+      <c r="O8" s="15">
+        <f>N8-(($I$18*$E$16)/SQRT(10))</f>
+        <v>0.97026785908785806</v>
+      </c>
+      <c r="P8" s="15">
+        <f>N8+(($I$18*$E$16)/SQRT(10))</f>
+        <v>0.99199634091214184</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>5</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.8181817999999999E-2</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.96551719999999996</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.98245610000000005</v>
+      </c>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="M9" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="N9" s="21">
+        <v>0.96894409999999997</v>
+      </c>
+      <c r="O9" s="15">
+        <f>N9-(($I$18*$F$16)/SQRT(10))</f>
+        <v>0.95900494656893487</v>
+      </c>
+      <c r="P9" s="15">
+        <f>N9+(($I$18*$F$16)/SQRT(10))</f>
+        <v>0.97888325343106508</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>6</v>
+      </c>
+      <c r="C10" s="4">
+        <v>4.5454544999999999E-2</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.95161289999999998</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.96721310000000005</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.95934960000000002</v>
+      </c>
+      <c r="H10" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>7</v>
+      </c>
+      <c r="C11" s="4">
+        <v>2.7272727E-2</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.97058820000000001</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.98507460000000002</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.97777780000000003</v>
+      </c>
+      <c r="H11" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>8</v>
+      </c>
+      <c r="C12" s="4">
+        <v>9.1743120000000004E-3</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.9830508</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.99145300000000003</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" s="21">
+        <v>2.9170459999999999E-2</v>
+      </c>
+      <c r="J12" s="15">
+        <f>I12-(($I$18*$C$16)/SQRT(10))</f>
+        <v>1.9035947700447833E-2</v>
+      </c>
+      <c r="K12" s="15">
+        <f>I12+(($I$18*$C$16)/SQRT(10))</f>
+        <v>3.9304972299552168E-2</v>
+      </c>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <v>9</v>
+      </c>
+      <c r="C13" s="4">
+        <v>2.7522936000000001E-2</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.94545449999999998</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.97196260000000001</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" s="21">
+        <v>0.966611</v>
+      </c>
+      <c r="J13" s="15">
+        <f>I13-(($I$18*$D$16)/SQRT(10))</f>
+        <v>0.9517966668501755</v>
+      </c>
+      <c r="K13" s="15">
+        <f>I13+(($I$18*$D$16)/SQRT(10))</f>
+        <v>0.9814253331498245</v>
+      </c>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>10</v>
+      </c>
+      <c r="C14" s="4">
+        <v>5.5045872000000003E-2</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.92857140000000005</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.96296300000000001</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.94545449999999998</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="21">
+        <v>0.97969539999999999</v>
+      </c>
+      <c r="J14" s="15">
+        <f>I14-(($I$18*$E$16)/SQRT(10))</f>
+        <v>0.96883115908785811</v>
+      </c>
+      <c r="K14" s="15">
+        <f>I14+(($I$18*$E$16)/SQRT(10))</f>
+        <v>0.99055964091214188</v>
+      </c>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B15" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="11">
+        <f>AVERAGE(C5:C14)</f>
+        <v>2.9174311800000002E-2</v>
+      </c>
+      <c r="D15" s="11">
+        <f t="shared" ref="D15:F15" si="0">AVERAGE(D5:D14)</f>
+        <v>0.96127172999999999</v>
+      </c>
+      <c r="E15" s="11">
+        <f t="shared" si="0"/>
+        <v>0.98467369999999987</v>
+      </c>
+      <c r="F15" s="11">
+        <f t="shared" si="0"/>
+        <v>0.97270444</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="21">
+        <v>0.97310920000000001</v>
+      </c>
+      <c r="J15" s="15">
+        <f>I15-(($I$18*$F$16)/SQRT(10))</f>
+        <v>0.9631700465689349</v>
+      </c>
+      <c r="K15" s="15">
+        <f>I15+(($I$18*$F$16)/SQRT(10))</f>
+        <v>0.98304835343106511</v>
+      </c>
+      <c r="M15" s="21"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="14"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="6">
+        <f>_xlfn.STDEV.S(C5:C14)</f>
+        <v>1.4168055632880408E-2</v>
+      </c>
+      <c r="D16" s="6">
+        <f t="shared" ref="D16:F16" si="1">_xlfn.STDEV.S(D5:D14)</f>
+        <v>2.0710448616260771E-2</v>
+      </c>
+      <c r="E16" s="6">
+        <f t="shared" si="1"/>
+        <v>1.518821676885663E-2</v>
+      </c>
+      <c r="F16" s="6">
+        <f t="shared" si="1"/>
+        <v>1.3894943791354083E-2</v>
+      </c>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="14"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B17" s="12"/>
@@ -2781,6 +3301,1487 @@
         <v>3</v>
       </c>
       <c r="C22" s="21">
+        <v>2.9170459999999999E-2</v>
+      </c>
+      <c r="D22" s="15">
+        <v>1.9035947700447833E-2</v>
+      </c>
+      <c r="E22" s="15">
+        <v>3.9304972299552168E-2</v>
+      </c>
+      <c r="F22" s="14"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="25"/>
+      <c r="B23" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="21">
+        <v>0.966611</v>
+      </c>
+      <c r="D23" s="15">
+        <v>0.9517966668501755</v>
+      </c>
+      <c r="E23" s="15">
+        <v>0.9814253331498245</v>
+      </c>
+      <c r="F23" s="14"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="21">
+        <v>0.97969539999999999</v>
+      </c>
+      <c r="D24" s="15">
+        <v>0.96883115908785811</v>
+      </c>
+      <c r="E24" s="15">
+        <v>0.99055964091214188</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="19">
+        <v>0.97310920000000001</v>
+      </c>
+      <c r="D25" s="20">
+        <v>0.9631700465689349</v>
+      </c>
+      <c r="E25" s="20">
+        <v>0.98304835343106511</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="25"/>
+      <c r="B27" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="18">
+        <v>3.6363640000000003E-2</v>
+      </c>
+      <c r="D27" s="11">
+        <v>2.6229127700447837E-2</v>
+      </c>
+      <c r="E27" s="11">
+        <v>4.6498152299552169E-2</v>
+      </c>
+      <c r="F27" s="14"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="25"/>
+      <c r="B28" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="21">
+        <v>0.95705519999999999</v>
+      </c>
+      <c r="D28" s="15">
+        <v>0.9422408668501755</v>
+      </c>
+      <c r="E28" s="15">
+        <v>0.97186953314982449</v>
+      </c>
+      <c r="F28" s="14"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="25"/>
+      <c r="B29" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="21">
+        <v>0.98113209999999995</v>
+      </c>
+      <c r="D29" s="15">
+        <v>0.97026785908785806</v>
+      </c>
+      <c r="E29" s="15">
+        <v>0.99199634091214184</v>
+      </c>
+      <c r="F29" s="14"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="25"/>
+      <c r="B30" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="19">
+        <v>0.96894409999999997</v>
+      </c>
+      <c r="D30" s="20">
+        <v>0.95900494656893487</v>
+      </c>
+      <c r="E30" s="20">
+        <v>0.97888325343106508</v>
+      </c>
+      <c r="F30" s="14"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F31" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{258A5960-608E-4FA2-B21D-60C4659FD31D}">
+  <dimension ref="A2:Q31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="9.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="14"/>
+    <col min="8" max="8" width="10.42578125" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" customWidth="1"/>
+    <col min="10" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="14"/>
+    <col min="17" max="17" width="9.140625" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B2" s="3"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="H5" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="H6" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>3</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="H7" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="21">
+        <v>2.9170459999999999E-2</v>
+      </c>
+      <c r="J7" s="15" t="e">
+        <f>I7-(($I$13*$C$16)/SQRT(10))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K7" s="15" t="e">
+        <f>I7+(($I$13*$C$16)/SQRT(10))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="H8" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="21">
+        <v>0.966611</v>
+      </c>
+      <c r="J8" s="15" t="e">
+        <f>I8-(($I$13*$D$16)/SQRT(10))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K8" s="15" t="e">
+        <f>I8+(($I$13*$D$16)/SQRT(10))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M8" s="21"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="14"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>5</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="H9" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="21">
+        <v>0.97969539999999999</v>
+      </c>
+      <c r="J9" s="15" t="e">
+        <f>I9-(($I$13*$E$16)/SQRT(10))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K9" s="15" t="e">
+        <f>I9+(($I$13*$E$16)/SQRT(10))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M9" s="21"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="14"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>6</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="H10" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="21">
+        <v>0.97310920000000001</v>
+      </c>
+      <c r="J10" s="15" t="e">
+        <f>I10-(($I$13*$F$16)/SQRT(10))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K10" s="15" t="e">
+        <f>I10+(($I$13*$F$16)/SQRT(10))</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>7</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>8</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <v>9</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="H13" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="28">
+        <v>2.262</v>
+      </c>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>10</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B15" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="11" t="e">
+        <f>AVERAGE(C5:C14)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D15" s="11" t="e">
+        <f t="shared" ref="D15:F15" si="0">AVERAGE(D5:D14)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E15" s="11" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F15" s="11" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="6" t="e">
+        <f>_xlfn.STDEV.S(C5:C14)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D16" s="6" t="e">
+        <f t="shared" ref="D16:F16" si="1">_xlfn.STDEV.S(D5:D14)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E16" s="6" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F16" s="6" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F19" s="14"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="25"/>
+      <c r="B20" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="14"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="25"/>
+      <c r="B21" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="14"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="25"/>
+      <c r="B22" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="21">
+        <v>2.9170459999999999E-2</v>
+      </c>
+      <c r="D22" s="15">
+        <v>1.9035947700447833E-2</v>
+      </c>
+      <c r="E22" s="15">
+        <v>3.9304972299552168E-2</v>
+      </c>
+      <c r="F22" s="14"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="25"/>
+      <c r="B23" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="21">
+        <v>0.966611</v>
+      </c>
+      <c r="D23" s="15">
+        <v>0.9517966668501755</v>
+      </c>
+      <c r="E23" s="15">
+        <v>0.9814253331498245</v>
+      </c>
+      <c r="F23" s="14"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="21">
+        <v>0.97969539999999999</v>
+      </c>
+      <c r="D24" s="15">
+        <v>0.96883115908785811</v>
+      </c>
+      <c r="E24" s="15">
+        <v>0.99055964091214188</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="19">
+        <v>0.97310920000000001</v>
+      </c>
+      <c r="D25" s="20">
+        <v>0.9631700465689349</v>
+      </c>
+      <c r="E25" s="20">
+        <v>0.98304835343106511</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="25"/>
+      <c r="B27" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="18">
+        <v>3.6363640000000003E-2</v>
+      </c>
+      <c r="D27" s="11">
+        <v>2.6229127700447837E-2</v>
+      </c>
+      <c r="E27" s="11">
+        <v>4.6498152299552169E-2</v>
+      </c>
+      <c r="F27" s="14"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="25"/>
+      <c r="B28" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="21">
+        <v>0.95705519999999999</v>
+      </c>
+      <c r="D28" s="15">
+        <v>0.9422408668501755</v>
+      </c>
+      <c r="E28" s="15">
+        <v>0.97186953314982449</v>
+      </c>
+      <c r="F28" s="14"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="25"/>
+      <c r="B29" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="21">
+        <v>0.98113209999999995</v>
+      </c>
+      <c r="D29" s="15">
+        <v>0.97026785908785806</v>
+      </c>
+      <c r="E29" s="15">
+        <v>0.99199634091214184</v>
+      </c>
+      <c r="F29" s="14"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="25"/>
+      <c r="B30" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="19">
+        <v>0.96894409999999997</v>
+      </c>
+      <c r="D30" s="20">
+        <v>0.95900494656893487</v>
+      </c>
+      <c r="E30" s="20">
+        <v>0.97888325343106508</v>
+      </c>
+      <c r="F30" s="14"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F31" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C637D0E-F70D-42FE-80A7-6D4B5C34882C}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="B2:E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0.134545454545455</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.91411042944785303</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.86627906976744196</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.88955223880597001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="4">
+        <v>5.0909090909090897E-2</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.92638036809815905</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.986928104575163</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.955696202531646</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1.45454545454545E-2</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.98773006134969299</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.98773006134969299</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.98773006134969299</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="4">
+        <v>3.2727272727272702E-2</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.95705521472392596</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.987341772151899</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.97196261682243001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1.45454545454545E-2</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.98159509202453998</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.99378881987577605</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.98765432098765404</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD517A62-35DA-4179-8663-B4E3D8DD6E82}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>7.2992700729926901E-3</v>
+      </c>
+      <c r="C5">
+        <v>0.98529411764705899</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0.99259259259259303</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>7.2992700729926901E-3</v>
+      </c>
+      <c r="C8">
+        <v>0.987179487179487</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0.99354838709677396</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E5126F3-C5DC-4911-8B13-A3635AD2C868}">
+  <dimension ref="A2:Q31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="9.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="14"/>
+    <col min="8" max="8" width="10.42578125" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" customWidth="1"/>
+    <col min="10" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="14"/>
+    <col min="17" max="17" width="9.140625" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.109090909090909</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.89552238805970197</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.92307692307692302</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="18">
+        <v>0.15955800000000001</v>
+      </c>
+      <c r="J5" s="11">
+        <v>0.13872473147162501</v>
+      </c>
+      <c r="K5" s="11">
+        <v>0.18039119846999299</v>
+      </c>
+      <c r="M5" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="O5" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="P5" s="23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.145454545454546</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.87037037037037002</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.83928571428571397</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.85454545454545505</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0.88075210000000004</v>
+      </c>
+      <c r="J6" s="15">
+        <v>0.85513957426825205</v>
+      </c>
+      <c r="K6" s="15">
+        <v>0.90636456732231596</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="N6" s="21">
+        <v>0.14545449999999999</v>
+      </c>
+      <c r="O6" s="15">
+        <f>N6-(($I$18*$C$16)/SQRT(10))</f>
+        <v>0.12462271388445784</v>
+      </c>
+      <c r="P6" s="15">
+        <f>N6+(($I$18*$C$16)/SQRT(10))</f>
+        <v>0.16628628611554214</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>3</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.13636363636363599</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.921875</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.85507246376811596</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.88721804511278202</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0.83481609999999995</v>
+      </c>
+      <c r="J7" s="15">
+        <v>0.79357943810047704</v>
+      </c>
+      <c r="K7" s="15">
+        <v>0.87605271725213296</v>
+      </c>
+      <c r="M7" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="N7" s="21">
+        <v>0.90184050000000004</v>
+      </c>
+      <c r="O7" s="15">
+        <f>N7-(($I$18*$D$16)/SQRT(10))</f>
+        <v>0.87622978289470288</v>
+      </c>
+      <c r="P7" s="15">
+        <f>N7+(($I$18*$D$16)/SQRT(10))</f>
+        <v>0.92745121710529721</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.18181818181818199</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.82352941176470595</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.875</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.84848484848484895</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="19">
+        <v>0.85564379999999995</v>
+      </c>
+      <c r="J8" s="20">
+        <v>0.83303708119076203</v>
+      </c>
+      <c r="K8" s="20">
+        <v>0.87825053556716504</v>
+      </c>
+      <c r="M8" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="N8" s="21">
+        <v>0.85964910000000005</v>
+      </c>
+      <c r="O8" s="15">
+        <f>N8-(($I$18*$E$16)/SQRT(10))</f>
+        <v>0.81841532532930361</v>
+      </c>
+      <c r="P8" s="15">
+        <f>N8+(($I$18*$E$16)/SQRT(10))</f>
+        <v>0.9008828746706965</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>5</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.15454545454545501</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.88461538461538503</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.80701754385964897</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.84403669724770602</v>
+      </c>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="M9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N9" s="19">
+        <v>0.88023949999999995</v>
+      </c>
+      <c r="O9" s="20">
+        <f>N9-(($I$18*$F$16)/SQRT(10))</f>
+        <v>0.85763434340846689</v>
+      </c>
+      <c r="P9" s="20">
+        <f>N9+(($I$18*$F$16)/SQRT(10))</f>
+        <v>0.90284465659153301</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>6</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.17272727272727301</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.92156862745098</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.75806451612903203</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.83185840707964598</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>7</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.18181818181818199</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.82608695652173902</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.87692307692307703</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.85074626865671599</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>8</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.13761467889908299</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.91304347826086996</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.875</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.89361702127659604</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" s="21">
+        <v>0.1613491</v>
+      </c>
+      <c r="J12" s="15">
+        <f>I12-(($I$18*$C$16)/SQRT(10))</f>
+        <v>0.14051731388445785</v>
+      </c>
+      <c r="K12" s="15">
+        <f>I12+(($I$18*$C$16)/SQRT(10))</f>
+        <v>0.18218088611554215</v>
+      </c>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <v>9</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.16513761467889901</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.86</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.79629629629629595</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.82692307692307698</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" s="21">
+        <v>0.87646080000000004</v>
+      </c>
+      <c r="J13" s="15">
+        <f>I13-(($I$18*$D$16)/SQRT(10))</f>
+        <v>0.85085008289470287</v>
+      </c>
+      <c r="K13" s="15">
+        <f>I13+(($I$18*$D$16)/SQRT(10))</f>
+        <v>0.9020715171052972</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>10</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.21100917431192701</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.89090909090909098</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.74242424242424199</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.80991735537190102</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="21">
+        <v>0.83598729999999999</v>
+      </c>
+      <c r="J14" s="15">
+        <f>I14-(($I$18*$E$16)/SQRT(10))</f>
+        <v>0.79475352532930355</v>
+      </c>
+      <c r="K14" s="15">
+        <f>I14+(($I$18*$E$16)/SQRT(10))</f>
+        <v>0.87722107467069643</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B15" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="11">
+        <f>AVERAGE(C5:C14)</f>
+        <v>0.15955796497080921</v>
+      </c>
+      <c r="D15" s="11">
+        <f t="shared" ref="D15:F15" si="0">AVERAGE(D5:D14)</f>
+        <v>0.88075207079528428</v>
+      </c>
+      <c r="E15" s="11">
+        <f t="shared" si="0"/>
+        <v>0.83481607767630484</v>
+      </c>
+      <c r="F15" s="11">
+        <f t="shared" si="0"/>
+        <v>0.8556438083789637</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="19">
+        <v>0.85574570000000005</v>
+      </c>
+      <c r="J15" s="20">
+        <f>I15-(($I$18*$F$16)/SQRT(10))</f>
+        <v>0.83314054340846699</v>
+      </c>
+      <c r="K15" s="20">
+        <f>I15+(($I$18*$F$16)/SQRT(10))</f>
+        <v>0.87835085659153311</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="6">
+        <f>_xlfn.STDEV.S(C5:C14)</f>
+        <v>2.9122852278773106E-2</v>
+      </c>
+      <c r="D16" s="6">
+        <f t="shared" ref="D16:F16" si="1">_xlfn.STDEV.S(D5:D14)</f>
+        <v>3.5803801309890915E-2</v>
+      </c>
+      <c r="E16" s="6">
+        <f t="shared" si="1"/>
+        <v>5.7644847252679043E-2</v>
+      </c>
+      <c r="F16" s="6">
+        <f t="shared" si="1"/>
+        <v>3.1602025505752834E-2</v>
+      </c>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H18" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="28">
+        <v>2.262</v>
+      </c>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F19" s="14"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="25"/>
+      <c r="B20" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="14"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="25"/>
+      <c r="B21" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="14"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="25"/>
+      <c r="B22" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="21">
         <v>0.1613491</v>
       </c>
       <c r="D22" s="15">
@@ -2930,11 +4931,926 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5314AC0C-1A92-4980-8285-01695ECC7B1E}">
+  <dimension ref="A2:Q50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="9.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="14"/>
+    <col min="8" max="8" width="10.42578125" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" customWidth="1"/>
+    <col min="10" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="14"/>
+    <col min="17" max="17" width="9.140625" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="31"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.18115942028985499</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.82894736842105299</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.84</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.83443708609271505</v>
+      </c>
+      <c r="M5" s="32"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.14492753623188401</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.94594594594594605</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.81395348837209303</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.875</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="M6" s="13"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>3</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.160583941605839</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.91549295774647899</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.80246913580246904</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.85526315789473695</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="M7" s="13"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.160583941605839</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.84415584415584399</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.86666666666666703</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.85526315789473695</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="21">
+        <v>0.1613491</v>
+      </c>
+      <c r="J8" s="15">
+        <f>I8-(($I$14*$C$16)/SQRT(10))</f>
+        <v>0.14305402483189883</v>
+      </c>
+      <c r="K8" s="15">
+        <f>I8+(($I$14*$C$16)/SQRT(10))</f>
+        <v>0.17964417516810116</v>
+      </c>
+      <c r="M8" s="13"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>5</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.124087591240876</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.92424242424242398</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.83561643835616395</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.87769784172661902</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="21">
+        <v>0.87646080000000004</v>
+      </c>
+      <c r="J9" s="15">
+        <f>I9-(($I$14*$D$16)/SQRT(10))</f>
+        <v>0.83845506101117095</v>
+      </c>
+      <c r="K9" s="15">
+        <f>I9+(($I$14*$D$16)/SQRT(10))</f>
+        <v>0.91446653898882913</v>
+      </c>
+      <c r="M9" s="13"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>6</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.167883211678832</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.822784810126582</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.87837837837837796</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.84967320261437895</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="21">
+        <v>0.83598729999999999</v>
+      </c>
+      <c r="J10" s="15">
+        <f>I10-(($I$14*$E$16)/SQRT(10))</f>
+        <v>0.81127578419112611</v>
+      </c>
+      <c r="K10" s="15">
+        <f>I10+(($I$14*$E$16)/SQRT(10))</f>
+        <v>0.86069881580887386</v>
+      </c>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>7</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.116788321167883</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.918604651162791</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.89772727272727304</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.90804597701149403</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="19">
+        <v>0.85574570000000005</v>
+      </c>
+      <c r="J11" s="20">
+        <f>I11-(($I$14*$F$16)/SQRT(10))</f>
+        <v>0.83851420378548791</v>
+      </c>
+      <c r="K11" s="20">
+        <f>I11+(($I$14*$F$16)/SQRT(10))</f>
+        <v>0.8729771962145122</v>
+      </c>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>8</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.18978102189780999</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.79487179487179505</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.86111111111111105</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.82666666666666699</v>
+      </c>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <v>9</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.17518248175182499</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.92307692307692302</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>10</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.18978102189780999</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.87012987012986998</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.80722891566265098</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.83750000000000002</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="28">
+        <v>2.262</v>
+      </c>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B15" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="11">
+        <f>AVERAGE(C5:C14)</f>
+        <v>0.16107584893684529</v>
+      </c>
+      <c r="D15" s="11">
+        <f t="shared" ref="D15:F15" si="0">AVERAGE(D5:D14)</f>
+        <v>0.87882525898797081</v>
+      </c>
+      <c r="E15" s="11">
+        <f t="shared" si="0"/>
+        <v>0.84031514070768076</v>
+      </c>
+      <c r="F15" s="11">
+        <f t="shared" si="0"/>
+        <v>0.85766899470442048</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B16" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="6">
+        <f>_xlfn.STDEV.S(C5:C14)</f>
+        <v>2.557652851246137E-2</v>
+      </c>
+      <c r="D16" s="6">
+        <f t="shared" ref="D16:F16" si="1">_xlfn.STDEV.S(D5:D14)</f>
+        <v>5.3132051000249661E-2</v>
+      </c>
+      <c r="E16" s="6">
+        <f t="shared" si="1"/>
+        <v>3.4546717237532935E-2</v>
+      </c>
+      <c r="F16" s="6">
+        <f t="shared" si="1"/>
+        <v>2.408964435474252E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+      <c r="G19"/>
+      <c r="L19"/>
+      <c r="Q19"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
+      <c r="G20"/>
+      <c r="L20"/>
+      <c r="Q20"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
+      <c r="G21"/>
+      <c r="L21"/>
+      <c r="Q21"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="14"/>
+      <c r="G22"/>
+      <c r="L22"/>
+      <c r="Q22"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="14"/>
+      <c r="G23"/>
+      <c r="L23"/>
+      <c r="Q23"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="14"/>
+      <c r="G24"/>
+      <c r="L24"/>
+      <c r="Q24"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="14"/>
+      <c r="G25"/>
+      <c r="L25"/>
+      <c r="Q25"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="14"/>
+      <c r="G26"/>
+      <c r="L26"/>
+      <c r="Q26"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="14"/>
+      <c r="G27"/>
+      <c r="L27"/>
+      <c r="Q27"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="14"/>
+      <c r="G28"/>
+      <c r="L28"/>
+      <c r="Q28"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="14"/>
+      <c r="G29"/>
+      <c r="L29"/>
+      <c r="Q29"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="14"/>
+      <c r="G30"/>
+      <c r="L30"/>
+      <c r="Q30"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="14"/>
+      <c r="G31"/>
+      <c r="L31"/>
+      <c r="Q31"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="14"/>
+      <c r="G32"/>
+      <c r="L32"/>
+      <c r="Q32"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="14"/>
+      <c r="G33"/>
+      <c r="L33"/>
+      <c r="Q33"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="14"/>
+      <c r="G34"/>
+      <c r="L34"/>
+      <c r="Q34"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" s="14"/>
+      <c r="G35"/>
+      <c r="L35"/>
+      <c r="Q35"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="14"/>
+      <c r="G36"/>
+      <c r="L36"/>
+      <c r="Q36"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" s="14"/>
+      <c r="G37"/>
+      <c r="L37"/>
+      <c r="Q37"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="14"/>
+      <c r="G38"/>
+      <c r="L38"/>
+      <c r="Q38"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" s="14"/>
+      <c r="G39"/>
+      <c r="L39"/>
+      <c r="Q39"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" s="14"/>
+      <c r="G40"/>
+      <c r="L40"/>
+      <c r="Q40"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" s="14"/>
+      <c r="G41"/>
+      <c r="L41"/>
+      <c r="Q41"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" s="14"/>
+      <c r="G42"/>
+      <c r="L42"/>
+      <c r="Q42"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" s="14"/>
+      <c r="G43"/>
+      <c r="L43"/>
+      <c r="Q43"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" s="14"/>
+      <c r="G44"/>
+      <c r="L44"/>
+      <c r="Q44"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45" s="14"/>
+      <c r="G45"/>
+      <c r="L45"/>
+      <c r="Q45"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" s="14"/>
+      <c r="G46"/>
+      <c r="L46"/>
+      <c r="Q46"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47" s="14"/>
+      <c r="G47"/>
+      <c r="L47"/>
+      <c r="Q47"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" s="14"/>
+      <c r="G48"/>
+      <c r="L48"/>
+      <c r="Q48"/>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49" s="14"/>
+      <c r="G49"/>
+      <c r="L49"/>
+      <c r="Q49"/>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50" s="14"/>
+      <c r="G50"/>
+      <c r="L50"/>
+      <c r="Q50"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E711580F-4DA1-4B4B-A8BE-4B972478CE8A}">
+  <dimension ref="B3:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>2</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>3</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0</v>
+      </c>
+      <c r="D7" s="6">
+        <v>1</v>
+      </c>
+      <c r="E7" s="6">
+        <v>1</v>
+      </c>
+      <c r="F7" s="6">
+        <v>1</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>4</v>
+      </c>
+      <c r="C8" s="6">
+        <v>7.2992700729926901E-3</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.98529411764705899</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0.99259259259259303</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="21">
+        <v>0</v>
+      </c>
+      <c r="J8" s="15">
+        <v>0</v>
+      </c>
+      <c r="K8" s="15">
+        <f>I8+((D16*$I$13)/SQRT(10))</f>
+        <v>4.1631335655006752E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>5</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0</v>
+      </c>
+      <c r="D9" s="6">
+        <v>1</v>
+      </c>
+      <c r="E9" s="6">
+        <v>1</v>
+      </c>
+      <c r="F9" s="6">
+        <v>1</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="21">
+        <v>1</v>
+      </c>
+      <c r="J9" s="15">
+        <f>I9-((I13*$D$16)/SQRT(10))</f>
+        <v>0.99583686643449931</v>
+      </c>
+      <c r="K9" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>6</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0</v>
+      </c>
+      <c r="D10" s="6">
+        <v>1</v>
+      </c>
+      <c r="E10" s="6">
+        <v>1</v>
+      </c>
+      <c r="F10" s="6">
+        <v>1</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="21">
+        <v>1</v>
+      </c>
+      <c r="J10" s="15">
+        <f>I10-((I13*$E$16)/SQRT(10))</f>
+        <v>1</v>
+      </c>
+      <c r="K10" s="15">
+        <f>I10+((I13*$E$16)/SQRT(10))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>7</v>
+      </c>
+      <c r="C11" s="6">
+        <v>7.2992700729926901E-3</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0.987179487179487</v>
+      </c>
+      <c r="E11" s="6">
+        <v>1</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0.99354838709677396</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="19">
+        <v>1</v>
+      </c>
+      <c r="J11" s="20">
+        <f>I11-((I13*$F$16)/SQRT(10))</f>
+        <v>0.99790385627957456</v>
+      </c>
+      <c r="K11" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>8</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0</v>
+      </c>
+      <c r="D12" s="6">
+        <v>1</v>
+      </c>
+      <c r="E12" s="6">
+        <v>1</v>
+      </c>
+      <c r="F12" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <v>9</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0</v>
+      </c>
+      <c r="D13" s="6">
+        <v>1</v>
+      </c>
+      <c r="E13" s="6">
+        <v>1</v>
+      </c>
+      <c r="F13" s="6">
+        <v>1</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="28">
+        <v>2.262</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>10</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0</v>
+      </c>
+      <c r="D14" s="6">
+        <v>1</v>
+      </c>
+      <c r="E14" s="6">
+        <v>1</v>
+      </c>
+      <c r="F14" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="11">
+        <f>AVERAGE(C5:C14)</f>
+        <v>1.4598540145985381E-3</v>
+      </c>
+      <c r="D15" s="11">
+        <f t="shared" ref="D15:F15" si="0">AVERAGE(D5:D14)</f>
+        <v>0.99724736048265472</v>
+      </c>
+      <c r="E15" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F15" s="11">
+        <f t="shared" si="0"/>
+        <v>0.99861409796893663</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="20">
+        <f>_xlfn.STDEV.S(C5:C14)</f>
+        <v>3.0776424916480532E-3</v>
+      </c>
+      <c r="D16" s="20">
+        <f t="shared" ref="D16:F16" si="1">_xlfn.STDEV.S(D5:D14)</f>
+        <v>5.8200637800530147E-3</v>
+      </c>
+      <c r="E16" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="20">
+        <f t="shared" si="1"/>
+        <v>2.9304104595948605E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30173D1D-E4E5-4594-9CE2-2395742BC0EB}">
   <dimension ref="B3:P18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:F16"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3437,12 +6353,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD074B2-F831-4F43-9A63-89420B873B16}">
   <dimension ref="A2:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3474,7 +6390,7 @@
       <c r="B3" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="33" t="s">
+      <c r="I3" s="31" t="s">
         <v>36</v>
       </c>
       <c r="J3" s="14"/>
@@ -3503,20 +6419,20 @@
       <c r="G4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="34" t="s">
+      <c r="I4" s="32" t="s">
         <v>17</v>
       </c>
       <c r="J4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="35" t="s">
+      <c r="K4" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="35" t="s">
+      <c r="L4" s="33" t="s">
         <v>16</v>
       </c>
       <c r="M4" s="14"/>
-      <c r="N4" s="33" t="s">
+      <c r="N4" s="31" t="s">
         <v>38</v>
       </c>
       <c r="O4" s="14"/>
@@ -3548,23 +6464,23 @@
         <f>C15</f>
         <v>0.23247707000000001</v>
       </c>
-      <c r="K5" s="36">
+      <c r="K5" s="34">
         <v>0.2065726</v>
       </c>
-      <c r="L5" s="36">
+      <c r="L5" s="34">
         <v>0.25838149999999999</v>
       </c>
       <c r="M5" s="14"/>
-      <c r="N5" s="34" t="s">
+      <c r="N5" s="32" t="s">
         <v>17</v>
       </c>
       <c r="O5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="P5" s="35" t="s">
+      <c r="P5" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="Q5" s="35" t="s">
+      <c r="Q5" s="33" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3769,7 +6685,7 @@
       <c r="G10" s="1">
         <v>0.01</v>
       </c>
-      <c r="I10" s="33" t="s">
+      <c r="I10" s="31" t="s">
         <v>37</v>
       </c>
       <c r="J10" s="14"/>
@@ -3798,16 +6714,16 @@
       <c r="G11" s="1">
         <v>0.01</v>
       </c>
-      <c r="I11" s="34" t="s">
+      <c r="I11" s="32" t="s">
         <v>17</v>
       </c>
       <c r="J11" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="35" t="s">
+      <c r="K11" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="L11" s="35" t="s">
+      <c r="L11" s="33" t="s">
         <v>16</v>
       </c>
       <c r="M11" s="14"/>
@@ -4184,12 +7100,557 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2401DB22-3303-4B86-BFB0-0080C64FED13}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC4B3C8D-0FB4-4B99-A926-5035098C4B91}">
+  <dimension ref="A2:P30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="9.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="4" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="14" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" customWidth="1"/>
+    <col min="9" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="14"/>
+    <col min="16" max="16" width="9.140625" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B2" s="3"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6">
+        <v>3.6231884057971099E-2</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.938271604938272</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0.968152866242038</v>
+      </c>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>2</v>
+      </c>
+      <c r="C6" s="6">
+        <v>3.6231884057971099E-2</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.94117647058823495</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.96969696969696995</v>
+      </c>
+      <c r="H6" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>3</v>
+      </c>
+      <c r="C7" s="6">
+        <v>2.9197080291970798E-2</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.95652173913043503</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0.98507462686567204</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0.97058823529411797</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>4</v>
+      </c>
+      <c r="C8" s="6">
+        <v>2.9197080291970798E-2</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.96103896103896103</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.98666666666666702</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0.97368421052631604</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="15">
+        <v>4.155294615465991E-2</v>
+      </c>
+      <c r="J8" s="15">
+        <f>I8-(($I$14*$C$16)/SQRT(10))</f>
+        <v>2.8505285547644758E-2</v>
+      </c>
+      <c r="K8" s="15">
+        <f>I8+(($I$14*$C$16)/SQRT(10))</f>
+        <v>5.4600606761675066E-2</v>
+      </c>
+      <c r="M8" s="21"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>5</v>
+      </c>
+      <c r="C9" s="6">
+        <v>4.3795620437956199E-2</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.93589743589743601</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0.98648648648648696</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0.96052631578947401</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="15">
+        <v>0.93657794748587597</v>
+      </c>
+      <c r="J9" s="15">
+        <f>I9-(($I$14*$D$16)/SQRT(10))</f>
+        <v>0.9153702163750469</v>
+      </c>
+      <c r="K9" s="15">
+        <f>I9+(($I$14*$D$16)/SQRT(10))</f>
+        <v>0.95778567859670505</v>
+      </c>
+      <c r="M9" s="21"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>6</v>
+      </c>
+      <c r="C10" s="6">
+        <v>6.5693430656934296E-2</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0.93333333333333302</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0.94594594594594605</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0.93959731543624203</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="15">
+        <v>0.98742667698283082</v>
+      </c>
+      <c r="J10" s="15">
+        <f>I10-(($I$14*$E$16)/SQRT(10))</f>
+        <v>0.97580559259932143</v>
+      </c>
+      <c r="K10" s="15">
+        <f>I10+(($I$14*$E$16)/SQRT(10))</f>
+        <v>0.99904776136634021</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>7</v>
+      </c>
+      <c r="C11" s="6">
+        <v>2.9197080291970798E-2</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0.95061728395061695</v>
+      </c>
+      <c r="E11" s="6">
+        <v>1</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0.974683544303797</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="20">
+        <v>0.96109299164521311</v>
+      </c>
+      <c r="J11" s="20">
+        <f>I11-(($I$14*$F$16)/SQRT(10))</f>
+        <v>0.94735870847508652</v>
+      </c>
+      <c r="K11" s="20">
+        <f>I11+(($I$14*$F$16)/SQRT(10))</f>
+        <v>0.97482727481533971</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>8</v>
+      </c>
+      <c r="C12" s="6">
+        <v>4.3795620437956199E-2</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0.93589743589743601</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0.98648648648648696</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0.96052631578947401</v>
+      </c>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <v>9</v>
+      </c>
+      <c r="C13" s="6">
+        <v>2.18978102189781E-2</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0.95588235294117696</v>
+      </c>
+      <c r="E13" s="6">
+        <v>1</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0.977443609022556</v>
+      </c>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>10</v>
+      </c>
+      <c r="C14" s="6">
+        <v>8.0291970802919693E-2</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0.98360655737704905</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0.91603053435114501</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="28">
+        <v>2.262</v>
+      </c>
+      <c r="J14" s="14"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="11">
+        <f>AVERAGE(C5:C14)</f>
+        <v>4.155294615465991E-2</v>
+      </c>
+      <c r="D15" s="11">
+        <f t="shared" ref="D15:F15" si="0">AVERAGE(D5:D14)</f>
+        <v>0.93657794748587597</v>
+      </c>
+      <c r="E15" s="11">
+        <f t="shared" si="0"/>
+        <v>0.98742667698283082</v>
+      </c>
+      <c r="F15" s="11">
+        <f t="shared" si="0"/>
+        <v>0.96109299164521311</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="6">
+        <f>_xlfn.STDEV.S(C5:C14)</f>
+        <v>1.8240639104784712E-2</v>
+      </c>
+      <c r="D16" s="6">
+        <f t="shared" ref="D16:F16" si="1">_xlfn.STDEV.S(D5:D14)</f>
+        <v>2.9648423658104609E-2</v>
+      </c>
+      <c r="E16" s="6">
+        <f t="shared" si="1"/>
+        <v>1.6246284497304784E-2</v>
+      </c>
+      <c r="F16" s="6">
+        <f t="shared" si="1"/>
+        <v>1.9200537951953089E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F18" s="14"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="25"/>
+      <c r="B19" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="14"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="25"/>
+      <c r="B20" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="14"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="25"/>
+      <c r="B21" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="21">
+        <v>3.7374659999999997E-2</v>
+      </c>
+      <c r="D21" s="15">
+        <v>1.1471970474438525E-2</v>
+      </c>
+      <c r="E21" s="15">
+        <v>6.3277349525561466E-2</v>
+      </c>
+      <c r="F21" s="14"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="25"/>
+      <c r="B22" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="21">
+        <v>0.94156930000000005</v>
+      </c>
+      <c r="D22" s="15">
+        <v>0.91491269980298318</v>
+      </c>
+      <c r="E22" s="15">
+        <v>0.96822590019701693</v>
+      </c>
+      <c r="F22" s="14"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="21">
+        <v>0.98947370000000001</v>
+      </c>
+      <c r="D23" s="15">
+        <v>0.95160977017026438</v>
+      </c>
+      <c r="E23" s="15">
+        <v>1.0273376298297356</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="19">
+        <v>0.96492730000000004</v>
+      </c>
+      <c r="D24" s="20">
+        <v>0.94172081515084249</v>
+      </c>
+      <c r="E24" s="20">
+        <v>0.98813378484915759</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="25"/>
+      <c r="B26" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="18">
+        <v>5.0909089999999997E-2</v>
+      </c>
+      <c r="D26" s="11">
+        <v>2.5006400474438525E-2</v>
+      </c>
+      <c r="E26" s="11">
+        <v>7.6811779525561466E-2</v>
+      </c>
+      <c r="F26" s="14"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="25"/>
+      <c r="B27" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="21">
+        <v>0.92638039999999999</v>
+      </c>
+      <c r="D27" s="15">
+        <v>0.89972379980298312</v>
+      </c>
+      <c r="E27" s="15">
+        <v>0.95303700019701687</v>
+      </c>
+      <c r="F27" s="14"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="25"/>
+      <c r="B28" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="21">
+        <v>0.98692809999999997</v>
+      </c>
+      <c r="D28" s="15">
+        <v>0.94906417017026434</v>
+      </c>
+      <c r="E28" s="15">
+        <v>1.0247920298297355</v>
+      </c>
+      <c r="F28" s="14"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="25"/>
+      <c r="B29" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="19">
+        <v>0.9556962</v>
+      </c>
+      <c r="D29" s="20">
+        <v>0.93248971515084245</v>
+      </c>
+      <c r="E29" s="20">
+        <v>0.97890268484915754</v>
+      </c>
+      <c r="F29" s="14"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F30" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18D52B63-DE13-40AC-B926-8763B4E50EFA}">
   <dimension ref="A2:Q31"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4210,11 +7671,12 @@
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>32</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
@@ -4232,384 +7694,283 @@
       <c r="F4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>1</v>
       </c>
-      <c r="C5" s="4">
-        <v>3.6363635999999998E-2</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0.97058820000000001</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0.97058820000000001</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0.97058820000000001</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" s="18">
-        <v>1.0925771400000001E-2</v>
-      </c>
-      <c r="J5" s="11">
-        <v>2.9336290000000001E-3</v>
-      </c>
-      <c r="K5" s="11">
-        <v>1.891791E-2</v>
-      </c>
-      <c r="M5" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="N5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="O5" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="P5" s="23" t="s">
-        <v>16</v>
-      </c>
+      <c r="C5" s="6">
+        <v>1.4492753623188401E-2</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.98591549295774605</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0.98591549295774605</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0.98591549295774605</v>
+      </c>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
         <v>2</v>
       </c>
-      <c r="C6" s="4">
-        <v>9.0909089999999994E-3</v>
-      </c>
-      <c r="D6" s="4">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0.98484850000000002</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0.99236639999999998</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6" s="4">
-        <v>0.99045242999999983</v>
-      </c>
-      <c r="J6" s="15">
-        <v>0.98273201899999996</v>
-      </c>
-      <c r="K6" s="15">
-        <v>0.99817283999999995</v>
-      </c>
-      <c r="M6" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="N6" s="21">
-        <v>1.454545E-2</v>
-      </c>
-      <c r="O6" s="15">
-        <f>N6-(($I$18*$C$16)/SQRT(10))</f>
-        <v>6.5538627889559359E-3</v>
-      </c>
-      <c r="P6" s="15">
-        <f>N6+(($I$18*$C$16)/SQRT(10))</f>
-        <v>2.2537037211044064E-2</v>
-      </c>
+      <c r="C6" s="6">
+        <v>7.2463768115942403E-3</v>
+      </c>
+      <c r="D6" s="6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0.984375</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.99212598425196896</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="M6" s="21"/>
+      <c r="N6" s="14"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>3</v>
       </c>
-      <c r="C7" s="4">
-        <v>9.0909089999999994E-3</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0.98412699999999997</v>
-      </c>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0.99199999999999999</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="4">
-        <v>0.98950263999999988</v>
-      </c>
-      <c r="J7" s="15">
-        <v>0.97851744900000004</v>
-      </c>
-      <c r="K7" s="15">
-        <v>1.00048783</v>
-      </c>
-      <c r="M7" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="N7" s="21">
-        <v>0.98773010000000006</v>
-      </c>
-      <c r="O7" s="15">
-        <f>N7-(($I$18*$D$16)/SQRT(10))</f>
-        <v>0.98001022064671717</v>
-      </c>
-      <c r="P7" s="15">
-        <f>N7+(($I$18*$D$16)/SQRT(10))</f>
-        <v>0.99544997935328294</v>
-      </c>
+      <c r="C7" s="6">
+        <v>2.18978102189781E-2</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.98360655737704905</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0.967741935483871</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0.97560975609756095</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="M7" s="15"/>
+      <c r="N7" s="14"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <v>4</v>
       </c>
-      <c r="C8" s="4">
-        <v>1.8181817999999999E-2</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0.98214290000000004</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0.98214290000000004</v>
-      </c>
-      <c r="F8" s="4">
-        <v>0.98214290000000004</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="19">
-        <v>0.98990594999999981</v>
-      </c>
-      <c r="J8" s="20">
-        <v>0.98278010800000004</v>
-      </c>
-      <c r="K8" s="20">
-        <v>0.99703178000000003</v>
-      </c>
-      <c r="M8" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="N8" s="21">
-        <v>0.98773010000000006</v>
-      </c>
-      <c r="O8" s="15">
-        <f>N8-(($I$18*$E$16)/SQRT(10))</f>
-        <v>0.97674567047153471</v>
-      </c>
-      <c r="P8" s="15">
-        <f>N8+(($I$18*$E$16)/SQRT(10))</f>
-        <v>0.9987145295284654</v>
-      </c>
+      <c r="C8" s="6">
+        <v>7.2992700729926901E-3</v>
+      </c>
+      <c r="D8" s="6">
+        <v>1</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.98823529411764699</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0.99408284023668603</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="15">
+        <v>9.473183116470961E-3</v>
+      </c>
+      <c r="J8" s="15">
+        <f>I8-(($I$14*$C$16)/SQRT(10))</f>
+        <v>4.5247093621642821E-3</v>
+      </c>
+      <c r="K8" s="15">
+        <f>I8+(($I$14*$C$16)/SQRT(10))</f>
+        <v>1.4421656870777639E-2</v>
+      </c>
+      <c r="M8" s="15"/>
+      <c r="N8" s="14"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <v>5</v>
       </c>
-      <c r="C9" s="4">
-        <v>1.8181817999999999E-2</v>
-      </c>
-      <c r="D9" s="4">
-        <v>1</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0.95744680000000004</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0.97826089999999999</v>
-      </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="M9" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="N9" s="19">
-        <v>0.98773010000000006</v>
-      </c>
-      <c r="O9" s="20">
-        <f>N9-(($I$18*$F$16)/SQRT(10))</f>
-        <v>0.98060476000218766</v>
-      </c>
-      <c r="P9" s="20">
-        <f>N9+(($I$18*$F$16)/SQRT(10))</f>
-        <v>0.99485543999781245</v>
-      </c>
+      <c r="C9" s="6">
+        <v>1.4598540145985399E-2</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.98850574712643702</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0.98850574712643702</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0.98850574712643702</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="15">
+        <v>0.99338048294180381</v>
+      </c>
+      <c r="J9" s="15">
+        <f>I9-(($I$14*$D$16)/SQRT(10))</f>
+        <v>0.98828908276809402</v>
+      </c>
+      <c r="K9" s="15">
+        <f>I9+(($I$14*$D$16)/SQRT(10))</f>
+        <v>0.9984718831155136</v>
+      </c>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>6</v>
       </c>
-      <c r="C10" s="4">
-        <v>0</v>
-      </c>
-      <c r="D10" s="4">
-        <v>1</v>
-      </c>
-      <c r="E10" s="4">
-        <v>1</v>
-      </c>
-      <c r="F10" s="4">
-        <v>1</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>33</v>
+      <c r="C10" s="6">
+        <v>7.2992700729926901E-3</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0.98876404494381998</v>
+      </c>
+      <c r="E10" s="6">
+        <v>1</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0.99435028248587598</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0.98872937030754993</v>
+      </c>
+      <c r="J10" s="15">
+        <f>I10-(($I$14*$E$16)/SQRT(10))</f>
+        <v>0.9817287155220098</v>
+      </c>
+      <c r="K10" s="15">
+        <f>I10+(($I$14*$E$16)/SQRT(10))</f>
+        <v>0.99573002509309005</v>
       </c>
       <c r="M10" s="14"/>
       <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <v>7</v>
       </c>
-      <c r="C11" s="4">
-        <v>0</v>
-      </c>
-      <c r="D11" s="4">
-        <v>1</v>
-      </c>
-      <c r="E11" s="4">
-        <v>1</v>
-      </c>
-      <c r="F11" s="4">
-        <v>1</v>
-      </c>
-      <c r="H11" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="K11" s="23" t="s">
-        <v>16</v>
+      <c r="C11" s="6">
+        <v>7.2992700729926901E-3</v>
+      </c>
+      <c r="D11" s="6">
+        <v>1</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0.98550724637681197</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0.99270072992700698</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="20">
+        <v>0.9910303820096269</v>
+      </c>
+      <c r="J11" s="20">
+        <f>I11-(($I$14*$F$16)/SQRT(10))</f>
+        <v>0.98585183020782541</v>
+      </c>
+      <c r="K11" s="20">
+        <f>I11+(($I$14*$F$16)/SQRT(10))</f>
+        <v>0.99620893381142839</v>
       </c>
       <c r="M11" s="14"/>
       <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <v>8</v>
       </c>
-      <c r="C12" s="4">
-        <v>9.1743120000000004E-3</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0.9830508</v>
-      </c>
-      <c r="E12" s="4">
-        <v>1</v>
-      </c>
-      <c r="F12" s="4">
-        <v>0.99145300000000003</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" s="21">
-        <v>7.292616E-3</v>
-      </c>
-      <c r="J12" s="15">
-        <f>I12-(($I$18*$C$16)/SQRT(10))</f>
-        <v>-6.9897121104406379E-4</v>
-      </c>
-      <c r="K12" s="15">
-        <f>I12+(($I$18*$C$16)/SQRT(10))</f>
-        <v>1.5284203211044064E-2</v>
-      </c>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
+      <c r="C12" s="6">
+        <v>1.4598540145985399E-2</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0.98701298701298701</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0.98701298701298701</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0.98701298701298701</v>
+      </c>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <v>9</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="6">
         <v>0</v>
       </c>
-      <c r="D13" s="4">
-        <v>1</v>
-      </c>
-      <c r="E13" s="4">
-        <v>1</v>
-      </c>
-      <c r="F13" s="4">
-        <v>1</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="I13" s="21">
-        <v>0.99499170000000003</v>
-      </c>
-      <c r="J13" s="15">
-        <f>I13-(($I$18*$D$16)/SQRT(10))</f>
-        <v>0.98727182064671715</v>
-      </c>
-      <c r="K13" s="15">
-        <f>I13+(($I$18*$D$16)/SQRT(10))</f>
-        <v>1.0027115793532828</v>
-      </c>
-      <c r="M13" s="21"/>
-      <c r="N13" s="14"/>
+      <c r="D13" s="6">
+        <v>1</v>
+      </c>
+      <c r="E13" s="6">
+        <v>1</v>
+      </c>
+      <c r="F13" s="6">
+        <v>1</v>
+      </c>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <v>10</v>
       </c>
-      <c r="C14" s="4">
-        <v>9.1743120000000004E-3</v>
-      </c>
-      <c r="D14" s="4">
-        <v>0.98461540000000003</v>
-      </c>
-      <c r="E14" s="4">
-        <v>1</v>
-      </c>
-      <c r="F14" s="4">
-        <v>0.99224809999999997</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I14" s="21">
-        <v>0.99168049999999996</v>
-      </c>
-      <c r="J14" s="15">
-        <f>I14-(($I$18*$E$16)/SQRT(10))</f>
-        <v>0.98069607047153462</v>
-      </c>
-      <c r="K14" s="15">
-        <f>I14+(($I$18*$E$16)/SQRT(10))</f>
-        <v>1.0026649295284653</v>
-      </c>
-      <c r="M14" s="15"/>
-      <c r="N14" s="14"/>
+      <c r="C14" s="6">
+        <v>0</v>
+      </c>
+      <c r="D14" s="6">
+        <v>1</v>
+      </c>
+      <c r="E14" s="6">
+        <v>1</v>
+      </c>
+      <c r="F14" s="6">
+        <v>1</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="28">
+        <v>2.262</v>
+      </c>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
@@ -4617,955 +7978,154 @@
       </c>
       <c r="C15" s="11">
         <f>AVERAGE(C5:C14)</f>
-        <v>1.0925771400000001E-2</v>
+        <v>9.473183116470961E-3</v>
       </c>
       <c r="D15" s="11">
         <f t="shared" ref="D15:F15" si="0">AVERAGE(D5:D14)</f>
-        <v>0.99045242999999983</v>
+        <v>0.99338048294180381</v>
       </c>
       <c r="E15" s="11">
         <f t="shared" si="0"/>
-        <v>0.98950263999999988</v>
+        <v>0.98872937030754993</v>
       </c>
       <c r="F15" s="11">
         <f t="shared" si="0"/>
-        <v>0.98990594999999981</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I15" s="19">
-        <v>0.99333329999999997</v>
-      </c>
-      <c r="J15" s="20">
-        <f>I15-(($I$18*$F$16)/SQRT(10))</f>
-        <v>0.98620796000218758</v>
-      </c>
-      <c r="K15" s="20">
-        <f>I15+(($I$18*$F$16)/SQRT(10))</f>
-        <v>1.0004586399978124</v>
-      </c>
-      <c r="M15" s="15"/>
-      <c r="N15" s="14"/>
+        <v>0.9910303820096269</v>
+      </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="C16" s="6">
         <f>_xlfn.STDEV.S(C5:C14)</f>
-        <v>1.1172244786371339E-2</v>
+        <v>6.9179699403950313E-3</v>
       </c>
       <c r="D16" s="6">
         <f t="shared" ref="D16:F16" si="1">_xlfn.STDEV.S(D5:D14)</f>
-        <v>1.0792397001804345E-2</v>
+        <v>7.1177811796197974E-3</v>
       </c>
       <c r="E16" s="6">
         <f t="shared" si="1"/>
-        <v>1.5356240542687799E-2</v>
+        <v>9.7869205282336055E-3</v>
       </c>
       <c r="F16" s="6">
         <f t="shared" si="1"/>
-        <v>9.9612305465015451E-3</v>
-      </c>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+        <v>7.2396192196557997E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H18" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I18" s="28">
-        <v>2.262</v>
-      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18"/>
+      <c r="E18" s="14"/>
+      <c r="G18"/>
       <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F19" s="14"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
-      <c r="B20" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="14"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
-      <c r="B21" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="14"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="25"/>
-      <c r="B22" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="21">
-        <v>7.292616E-3</v>
-      </c>
-      <c r="D22" s="15">
-        <v>-6.9897121104406379E-4</v>
-      </c>
-      <c r="E22" s="15">
-        <v>1.5284203211044064E-2</v>
-      </c>
-      <c r="F22" s="14"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="25"/>
-      <c r="B23" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="21">
-        <v>0.99499170000000003</v>
-      </c>
-      <c r="D23" s="15">
-        <v>0.98727182064671715</v>
-      </c>
-      <c r="E23" s="15">
-        <v>1.0027115793532828</v>
-      </c>
-      <c r="F23" s="14"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="21">
-        <v>0.99168049999999996</v>
-      </c>
-      <c r="D24" s="15">
-        <v>0.98069607047153462</v>
-      </c>
-      <c r="E24" s="15">
-        <v>1.0026649295284653</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B25" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="19">
-        <v>0.99333329999999997</v>
-      </c>
-      <c r="D25" s="20">
-        <v>0.98620796000218758</v>
-      </c>
-      <c r="E25" s="20">
-        <v>1.0004586399978124</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="26" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="25"/>
-      <c r="B27" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="18">
-        <v>1.454545E-2</v>
-      </c>
-      <c r="D27" s="11">
-        <v>6.5538627889559359E-3</v>
-      </c>
-      <c r="E27" s="11">
-        <v>2.2537037211044064E-2</v>
-      </c>
-      <c r="F27" s="14"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="25"/>
-      <c r="B28" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="21">
-        <v>0.98773010000000006</v>
-      </c>
-      <c r="D28" s="15">
-        <v>0.98001022064671717</v>
-      </c>
-      <c r="E28" s="15">
-        <v>0.99544997935328294</v>
-      </c>
-      <c r="F28" s="14"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="25"/>
-      <c r="B29" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="21">
-        <v>0.98773010000000006</v>
-      </c>
-      <c r="D29" s="15">
-        <v>0.97674567047153471</v>
-      </c>
-      <c r="E29" s="15">
-        <v>0.9987145295284654</v>
-      </c>
-      <c r="F29" s="14"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="25"/>
-      <c r="B30" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30" s="19">
-        <v>0.98773010000000006</v>
-      </c>
-      <c r="D30" s="20">
-        <v>0.98060476000218766</v>
-      </c>
-      <c r="E30" s="20">
-        <v>0.99485543999781245</v>
-      </c>
-      <c r="F30" s="14"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F31" s="14"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87C9ADF6-75BF-4875-A78E-082AE315158A}">
-  <dimension ref="A2:Q31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="9.85546875" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="14"/>
-    <col min="8" max="8" width="10.42578125" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" customWidth="1"/>
-    <col min="10" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="14"/>
-    <col min="17" max="17" width="9.140625" style="14"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B2" s="3"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-    </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="3">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1.8181817999999999E-2</v>
-      </c>
-      <c r="D5" s="4">
-        <v>1</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0.96610169999999995</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0.98275860000000004</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" s="21">
-        <v>2.9174311800000002E-2</v>
-      </c>
-      <c r="J5" s="6">
-        <v>1.90391E-2</v>
-      </c>
-      <c r="K5" s="6">
-        <v>3.9309530000000002E-2</v>
-      </c>
-      <c r="M5" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="N5" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="O5" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="P5" s="35" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="3">
-        <v>2</v>
-      </c>
-      <c r="C6" s="4">
-        <v>3.6363635999999998E-2</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0.95522390000000001</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0.98461540000000003</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0.96969700000000003</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6" s="15">
-        <v>0.96127172999999999</v>
-      </c>
-      <c r="J6" s="6">
-        <v>0.94645639999999998</v>
-      </c>
-      <c r="K6" s="6">
-        <v>0.97608711000000004</v>
-      </c>
-      <c r="M6" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="N6" s="21">
-        <v>3.6363640000000003E-2</v>
-      </c>
-      <c r="O6" s="15">
-        <f>N6-(($I$18*$C$16)/SQRT(10))</f>
-        <v>2.6229127700447837E-2</v>
-      </c>
-      <c r="P6" s="15">
-        <f>N6+(($I$18*$C$16)/SQRT(10))</f>
-        <v>4.6498152299552169E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="3">
-        <v>3</v>
-      </c>
-      <c r="C7" s="4">
-        <v>3.6363635999999998E-2</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0.94444439999999996</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0.98076920000000001</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0.96226420000000001</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="15">
-        <v>0.98467369999999987</v>
-      </c>
-      <c r="J7" s="6">
-        <v>0.97380869999999997</v>
-      </c>
-      <c r="K7" s="6">
-        <v>0.9955387</v>
-      </c>
-      <c r="M7" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="N7" s="21">
-        <v>0.95705519999999999</v>
-      </c>
-      <c r="O7" s="15">
-        <f>N7-(($I$18*$D$16)/SQRT(10))</f>
-        <v>0.9422408668501755</v>
-      </c>
-      <c r="P7" s="15">
-        <f>N7+(($I$18*$D$16)/SQRT(10))</f>
-        <v>0.97186953314982449</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="3">
-        <v>4</v>
-      </c>
-      <c r="C8" s="4">
-        <v>1.8181817999999999E-2</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0.96825399999999995</v>
-      </c>
-      <c r="E8" s="4">
-        <v>1</v>
-      </c>
-      <c r="F8" s="4">
-        <v>0.98387100000000005</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="15">
-        <v>0.97270444</v>
-      </c>
-      <c r="J8" s="6">
-        <v>0.96276459999999997</v>
-      </c>
-      <c r="K8" s="6">
-        <v>0.98264428000000004</v>
-      </c>
-      <c r="M8" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="N8" s="21">
-        <v>0.98113209999999995</v>
-      </c>
-      <c r="O8" s="15">
-        <f>N8-(($I$18*$E$16)/SQRT(10))</f>
-        <v>0.97026785908785806</v>
-      </c>
-      <c r="P8" s="15">
-        <f>N8+(($I$18*$E$16)/SQRT(10))</f>
-        <v>0.99199634091214184</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="3">
-        <v>5</v>
-      </c>
-      <c r="C9" s="4">
-        <v>1.8181817999999999E-2</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0.96551719999999996</v>
-      </c>
-      <c r="E9" s="4">
-        <v>1</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0.98245610000000005</v>
-      </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="M9" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="N9" s="21">
-        <v>0.96894409999999997</v>
-      </c>
-      <c r="O9" s="15">
-        <f>N9-(($I$18*$F$16)/SQRT(10))</f>
-        <v>0.95900494656893487</v>
-      </c>
-      <c r="P9" s="15">
-        <f>N9+(($I$18*$F$16)/SQRT(10))</f>
-        <v>0.97888325343106508</v>
-      </c>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="3">
-        <v>6</v>
-      </c>
-      <c r="C10" s="4">
-        <v>4.5454544999999999E-2</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0.95161289999999998</v>
-      </c>
-      <c r="E10" s="4">
-        <v>0.96721310000000005</v>
-      </c>
-      <c r="F10" s="4">
-        <v>0.95934960000000002</v>
-      </c>
-      <c r="H10" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="3">
-        <v>7</v>
-      </c>
-      <c r="C11" s="4">
-        <v>2.7272727E-2</v>
-      </c>
-      <c r="D11" s="4">
-        <v>0.97058820000000001</v>
-      </c>
-      <c r="E11" s="4">
-        <v>0.98507460000000002</v>
-      </c>
-      <c r="F11" s="4">
-        <v>0.97777780000000003</v>
-      </c>
-      <c r="H11" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="K11" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="3">
-        <v>8</v>
-      </c>
-      <c r="C12" s="4">
-        <v>9.1743120000000004E-3</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0.9830508</v>
-      </c>
-      <c r="E12" s="4">
-        <v>1</v>
-      </c>
-      <c r="F12" s="4">
-        <v>0.99145300000000003</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" s="21">
-        <v>2.9170459999999999E-2</v>
-      </c>
-      <c r="J12" s="15">
-        <f>I12-(($I$18*$C$16)/SQRT(10))</f>
-        <v>1.9035947700447833E-2</v>
-      </c>
-      <c r="K12" s="15">
-        <f>I12+(($I$18*$C$16)/SQRT(10))</f>
-        <v>3.9304972299552168E-2</v>
-      </c>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="3">
-        <v>9</v>
-      </c>
-      <c r="C13" s="4">
-        <v>2.7522936000000001E-2</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0.94545449999999998</v>
-      </c>
-      <c r="E13" s="4">
-        <v>1</v>
-      </c>
-      <c r="F13" s="4">
-        <v>0.97196260000000001</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="I13" s="21">
-        <v>0.966611</v>
-      </c>
-      <c r="J13" s="15">
-        <f>I13-(($I$18*$D$16)/SQRT(10))</f>
-        <v>0.9517966668501755</v>
-      </c>
-      <c r="K13" s="15">
-        <f>I13+(($I$18*$D$16)/SQRT(10))</f>
-        <v>0.9814253331498245</v>
-      </c>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="3">
-        <v>10</v>
-      </c>
-      <c r="C14" s="4">
-        <v>5.5045872000000003E-2</v>
-      </c>
-      <c r="D14" s="4">
-        <v>0.92857140000000005</v>
-      </c>
-      <c r="E14" s="4">
-        <v>0.96296300000000001</v>
-      </c>
-      <c r="F14" s="4">
-        <v>0.94545449999999998</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I14" s="21">
-        <v>0.97969539999999999</v>
-      </c>
-      <c r="J14" s="15">
-        <f>I14-(($I$18*$E$16)/SQRT(10))</f>
-        <v>0.96883115908785811</v>
-      </c>
-      <c r="K14" s="15">
-        <f>I14+(($I$18*$E$16)/SQRT(10))</f>
-        <v>0.99055964091214188</v>
-      </c>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="11">
-        <f>AVERAGE(C5:C14)</f>
-        <v>2.9174311800000002E-2</v>
-      </c>
-      <c r="D15" s="11">
-        <f t="shared" ref="D15:F15" si="0">AVERAGE(D5:D14)</f>
-        <v>0.96127172999999999</v>
-      </c>
-      <c r="E15" s="11">
-        <f t="shared" si="0"/>
-        <v>0.98467369999999987</v>
-      </c>
-      <c r="F15" s="11">
-        <f t="shared" si="0"/>
-        <v>0.97270444</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="I15" s="21">
-        <v>0.97310920000000001</v>
-      </c>
-      <c r="J15" s="15">
-        <f>I15-(($I$18*$F$16)/SQRT(10))</f>
-        <v>0.9631700465689349</v>
-      </c>
-      <c r="K15" s="15">
-        <f>I15+(($I$18*$F$16)/SQRT(10))</f>
-        <v>0.98304835343106511</v>
-      </c>
-      <c r="M15" s="21"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="14"/>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="6">
-        <f>_xlfn.STDEV.S(C5:C14)</f>
-        <v>1.4168055632880408E-2</v>
-      </c>
-      <c r="D16" s="6">
-        <f t="shared" ref="D16:F16" si="1">_xlfn.STDEV.S(D5:D14)</f>
-        <v>2.0710448616260771E-2</v>
-      </c>
-      <c r="E16" s="6">
-        <f t="shared" si="1"/>
-        <v>1.518821676885663E-2</v>
-      </c>
-      <c r="F16" s="6">
-        <f t="shared" si="1"/>
-        <v>1.3894943791354083E-2</v>
-      </c>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="14"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H18" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I18" s="28">
-        <v>2.262</v>
-      </c>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F19" s="14"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
-      <c r="B20" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="14"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
-      <c r="B21" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="14"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="25"/>
-      <c r="B22" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="21">
-        <v>2.9170459999999999E-2</v>
-      </c>
-      <c r="D22" s="15">
-        <v>1.9035947700447833E-2</v>
-      </c>
-      <c r="E22" s="15">
-        <v>3.9304972299552168E-2</v>
-      </c>
-      <c r="F22" s="14"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="25"/>
-      <c r="B23" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="21">
-        <v>0.966611</v>
-      </c>
-      <c r="D23" s="15">
-        <v>0.9517966668501755</v>
-      </c>
-      <c r="E23" s="15">
-        <v>0.9814253331498245</v>
-      </c>
-      <c r="F23" s="14"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="21">
-        <v>0.97969539999999999</v>
-      </c>
-      <c r="D24" s="15">
-        <v>0.96883115908785811</v>
-      </c>
-      <c r="E24" s="15">
-        <v>0.99055964091214188</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="19">
-        <v>0.97310920000000001</v>
-      </c>
-      <c r="D25" s="20">
-        <v>0.9631700465689349</v>
-      </c>
-      <c r="E25" s="20">
-        <v>0.98304835343106511</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="26" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="25"/>
-      <c r="B27" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="18">
-        <v>3.6363640000000003E-2</v>
-      </c>
-      <c r="D27" s="11">
-        <v>2.6229127700447837E-2</v>
-      </c>
-      <c r="E27" s="11">
-        <v>4.6498152299552169E-2</v>
-      </c>
-      <c r="F27" s="14"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="25"/>
-      <c r="B28" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="21">
-        <v>0.95705519999999999</v>
-      </c>
-      <c r="D28" s="15">
-        <v>0.9422408668501755</v>
-      </c>
-      <c r="E28" s="15">
-        <v>0.97186953314982449</v>
-      </c>
-      <c r="F28" s="14"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="25"/>
-      <c r="B29" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="21">
-        <v>0.98113209999999995</v>
-      </c>
-      <c r="D29" s="15">
-        <v>0.97026785908785806</v>
-      </c>
-      <c r="E29" s="15">
-        <v>0.99199634091214184</v>
-      </c>
-      <c r="F29" s="14"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="25"/>
-      <c r="B30" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30" s="19">
-        <v>0.96894409999999997</v>
-      </c>
-      <c r="D30" s="20">
-        <v>0.95900494656893487</v>
-      </c>
-      <c r="E30" s="20">
-        <v>0.97888325343106508</v>
-      </c>
-      <c r="F30" s="14"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18"/>
+      <c r="Q18"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19"/>
+      <c r="E19" s="14"/>
+      <c r="G19"/>
+      <c r="J19" s="14"/>
+      <c r="L19"/>
+      <c r="Q19"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20"/>
+      <c r="E20" s="14"/>
+      <c r="G20"/>
+      <c r="J20" s="14"/>
+      <c r="L20"/>
+      <c r="Q20"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21"/>
+      <c r="E21" s="14"/>
+      <c r="G21"/>
+      <c r="J21" s="14"/>
+      <c r="L21"/>
+      <c r="Q21"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22"/>
+      <c r="E22" s="14"/>
+      <c r="G22"/>
+      <c r="J22" s="14"/>
+      <c r="L22"/>
+      <c r="Q22"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23"/>
+      <c r="E23" s="14"/>
+      <c r="G23"/>
+      <c r="J23" s="14"/>
+      <c r="L23"/>
+      <c r="Q23"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24"/>
+      <c r="E24" s="14"/>
+      <c r="G24"/>
+      <c r="J24" s="14"/>
+      <c r="L24"/>
+      <c r="Q24"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25"/>
+      <c r="E25" s="14"/>
+      <c r="G25"/>
+      <c r="J25" s="14"/>
+      <c r="L25"/>
+      <c r="Q25"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26"/>
+      <c r="E26" s="14"/>
+      <c r="G26"/>
+      <c r="J26" s="14"/>
+      <c r="L26"/>
+      <c r="Q26"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27"/>
+      <c r="E27" s="14"/>
+      <c r="G27"/>
+      <c r="J27" s="14"/>
+      <c r="L27"/>
+      <c r="Q27"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28"/>
+      <c r="E28" s="14"/>
+      <c r="G28"/>
+      <c r="J28" s="14"/>
+      <c r="L28"/>
+      <c r="Q28"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29"/>
+      <c r="E29" s="14"/>
+      <c r="G29"/>
+      <c r="J29" s="14"/>
+      <c r="L29"/>
+      <c r="Q29"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30"/>
+      <c r="E30" s="14"/>
+      <c r="G30"/>
+      <c r="J30" s="14"/>
+      <c r="L30"/>
+      <c r="Q30"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F31" s="14"/>
     </row>
   </sheetData>
